--- a/data/base.xlsx
+++ b/data/base.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vamon\Documents\Aplicación Mundopeces\mundopeces_app\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CA668B6-C3AD-4A04-A041-E256F2F50A1A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{710B2AD7-27FF-419C-9188-7947F5B5EF35}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="1" xr2:uid="{732455C0-6376-41B9-84D1-84E385ACD0F1}"/>
   </bookViews>
@@ -18,7 +18,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">ficha!$A$1:$F$146</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">recurso!$A$1:$M$146</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">recurso!$A$1:$N$146</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="45">
   <si>
     <t>Goldfish Oranda</t>
   </si>
@@ -79,9 +79,6 @@
     <t>Ambiente</t>
   </si>
   <si>
-    <t>Filtracion</t>
-  </si>
-  <si>
     <t>Datos Curiosos</t>
   </si>
   <si>
@@ -110,18 +107,6 @@
     <t>Plantas de bajos requerimientos.</t>
   </si>
   <si>
-    <t>Otros parámetros</t>
-  </si>
-  <si>
-    <t>PH: 6,5 a 8, 0 y GH: 10 a 15</t>
-  </si>
-  <si>
-    <t>PH: 6,5 a 8, 0 y GH: 10 a 16</t>
-  </si>
-  <si>
-    <t>PH: 6,5 a 8, 0 y GH: 10 a 17</t>
-  </si>
-  <si>
     <t xml:space="preserve">Un oranda es una raza de carpa dorada caracterizada por un capuchón en la parte de la cabeza. </t>
   </si>
   <si>
@@ -138,9 +123,6 @@
   </si>
   <si>
     <t>Se desarrolló por primera vez a principios de 1700 en China, donde el rasgo se conocía como ojos de dragón.</t>
-  </si>
-  <si>
-    <t>El capuchón toma alrededor de 1 o 2 años para desarrollarse por completo.[</t>
   </si>
   <si>
     <t>https://www.youtube.com/watch?v=HLtX93i-twE</t>
@@ -162,6 +144,66 @@
 -	A diferencia del macho, acá no observamos tubérculos reproductores.
 -	Zona anal protuberante.
 -	Abdomen más abultado en época de apareamiento.</t>
+  </si>
+  <si>
+    <t>Reproducción</t>
+  </si>
+  <si>
+    <t>Acidez y Dureza del Agua</t>
+  </si>
+  <si>
+    <t>Filtración</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Madurez sexual: Los Goldfish Oranda alcanzan la madurez sexual alrededor de los 18 meses de edad. 
+Cortejo y desove:
+- Los machos persiguen a las hembras, golpeando suavemente su abdomen con el hocico para estimular el desove. 
+- Las hembras liberan los huevos, que son fertilizados por el macho con su esperma. 
+- El desove ocurre en aguas poco profundas con abundante vegetación, donde los huevos se adhieren a las plantas. 
+Cuidado de los alevines:
+- Es recomendable retirar a los padres del acuario después del desove para evitar que se coman los huevos o los alevines. 
+- Los huevos eclosionan en unos pocos días, y los alevines deben ser alimentados con alimentos finamente triturados o alimentos específicos para alevines. 
+- Es importante mantener el agua limpia y bien oxigenada para asegurar la supervivencia de los alevines. 
+- Los alevines deben ser transferidos a un acuario especial y recibir una dieta rica en proteínas para fomentar su crecimiento. 
+Factores importantes:
+- Temperatura del agua: Una temperatura de 20-24°C favorece el desove. 
+- Vegetación: La presencia de plantas acuáticas proporciona un lugar para el desove y ayuda a proteger los huevos. 
+- Alimentación: Una dieta equilibrada y nutritiva es esencial para la salud de los peces y el éxito de la reproducción. </t>
+  </si>
+  <si>
+    <t>Parámetros:
+- PH: 6,5 a 8,0
+- GH: 10 a 15</t>
+  </si>
+  <si>
+    <t>Parámetros:
+- PH: 6,5 a 8,0
+- GH: 10 a 16</t>
+  </si>
+  <si>
+    <t>Parámetros:
+- PH: 6,5 a 8,0
+- GH: 10 a 17</t>
+  </si>
+  <si>
+    <t>Cyprinus sp.</t>
+  </si>
+  <si>
+    <t>Koi Kohaku</t>
+  </si>
+  <si>
+    <t xml:space="preserve">El kohaku es una variedad de koi ornamental ( carpa ) que se caracteriza por el cuerpo blanco, con manchas rojas a lo largo del cuerpo. Se considera una de las tres grandes variedades de koi, junto con el sanke y el showa . </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Se cree que la raza Kōhaku fue una de las primeras variedades de carpas ornamentales desarrolladas. La variedad data de 1888, cuando un hombre llamado Kunizo Hiroi cruzó una koi hembra de cabeza roja con uno de sus propios machos, cuyas marcas se asemejaban a las flores de cerezo, creando así el linaje Gosuke, ahora extinto, del cual se establecieron todos los linajes Kōhaku conocidos (Tomoin, Sensuke, Yagozen, Manzo). </t>
+  </si>
+  <si>
+    <t xml:space="preserve">El Oranda surgió en China y Japón alrededor de 1590. </t>
+  </si>
+  <si>
+    <t>A continuación, te compartimos algunas curiosidades que te sorprenderán sobre esta especie:
+-	El capuchón toma alrededor de 1 o 2 años para desarrollarse por completo.
+-	Los orandas se presentan en una variedad de colores, incluyendo rojo, blanco, naranja, negro, y combinaciones como el sarasa (rojo y blanco) y el panda (blanco y negro).</t>
   </si>
 </sst>
 </file>
@@ -299,7 +341,9 @@
     <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
@@ -639,7 +683,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="E3" sqref="E3"/>
+      <selection pane="topRight" activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -655,13 +699,13 @@
         <v>6</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C1" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="D1" s="11" t="s">
         <v>16</v>
-      </c>
-      <c r="D1" s="11" t="s">
-        <v>17</v>
       </c>
       <c r="E1" s="11" t="s">
         <v>5</v>
@@ -675,7 +719,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C2" s="2">
         <v>18</v>
@@ -695,7 +739,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C3" s="2">
         <v>18</v>
@@ -715,7 +759,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C4" s="2">
         <v>18</v>
@@ -731,12 +775,24 @@
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="1"/>
-      <c r="B5" s="1"/>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
-      <c r="F5" s="1"/>
+      <c r="A5" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C5" s="2">
+        <v>15</v>
+      </c>
+      <c r="D5" s="2">
+        <v>25</v>
+      </c>
+      <c r="E5" s="2">
+        <v>90</v>
+      </c>
+      <c r="F5" s="1">
+        <v>3800</v>
+      </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
@@ -1108,7 +1164,7 @@
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" s="1"/>
-      <c r="B52" s="14"/>
+      <c r="B52" s="10"/>
       <c r="C52" s="13"/>
       <c r="D52" s="13"/>
       <c r="E52" s="2"/>
@@ -1124,7 +1180,7 @@
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" s="1"/>
-      <c r="B54" s="14"/>
+      <c r="B54" s="10"/>
       <c r="C54" s="13"/>
       <c r="D54" s="13"/>
       <c r="E54" s="2"/>
@@ -1148,7 +1204,7 @@
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57" s="1"/>
-      <c r="B57" s="14"/>
+      <c r="B57" s="10"/>
       <c r="C57" s="13"/>
       <c r="D57" s="13"/>
       <c r="E57" s="2"/>
@@ -1780,7 +1836,7 @@
     </row>
     <row r="136" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A136" s="1"/>
-      <c r="B136" s="14"/>
+      <c r="B136" s="10"/>
       <c r="C136" s="13"/>
       <c r="D136" s="13"/>
       <c r="E136" s="2"/>
@@ -1880,181 +1936,204 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{43DB3A21-6E97-43C0-9768-D0796C62C1D9}">
-  <dimension ref="A1:M146"/>
+  <dimension ref="A1:N146"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="E4" sqref="E4"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="H1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="6" width="35.5703125" customWidth="1"/>
-    <col min="7" max="7" width="46.5703125" customWidth="1"/>
-    <col min="8" max="8" width="74.5703125" customWidth="1"/>
-    <col min="9" max="9" width="73.7109375" customWidth="1"/>
-    <col min="10" max="10" width="62.140625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="49.85546875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="62.140625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="49.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="7" width="35.5703125" customWidth="1"/>
+    <col min="8" max="8" width="46.5703125" customWidth="1"/>
+    <col min="9" max="9" width="74.5703125" customWidth="1"/>
+    <col min="10" max="10" width="73.7109375" customWidth="1"/>
+    <col min="11" max="11" width="62.140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="49.85546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="62.140625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="49.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
         <v>6</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C1" s="7" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="D1" s="7" t="s">
         <v>3</v>
       </c>
       <c r="E1" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F1" s="7" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="G1" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="H1" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="H1" s="7" t="s">
+      <c r="I1" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="J1" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="I1" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="J1" s="7" t="s">
+      <c r="K1" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="7" t="s">
+      <c r="L1" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="L1" s="7" t="s">
+      <c r="M1" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="M1" s="7" t="s">
+      <c r="N1" s="7" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:13" ht="270" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="C2" s="4"/>
+        <v>21</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>43</v>
+      </c>
       <c r="D2" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="G2" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="I2" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="J2" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="L2" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="E2" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="H2" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="I2" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="K2" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="L2" s="1"/>
-      <c r="M2" s="1"/>
-    </row>
-    <row r="3" spans="1:13" ht="270" x14ac:dyDescent="0.25">
+      <c r="M2" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="N2" s="5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" ht="270" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="C3" s="4"/>
       <c r="D3" s="1" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="E3" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="F3" s="4"/>
+      <c r="G3" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="F3" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="H3" s="4" t="s">
+      <c r="H3" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="I3" s="4"/>
-      <c r="J3" s="1"/>
+      <c r="I3" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="J3" s="4"/>
       <c r="K3" s="1"/>
-      <c r="L3" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="M3" s="5" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" ht="270" x14ac:dyDescent="0.25">
+      <c r="L3" s="1"/>
+      <c r="M3" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="N3" s="5" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" ht="270" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="C4" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E4" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="D4" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="F4" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="H4" s="4" t="s">
+      <c r="F4" s="4"/>
+      <c r="G4" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="H4" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="I4" s="4"/>
-      <c r="J4" s="1"/>
-      <c r="K4" s="5"/>
-      <c r="L4" s="1"/>
-      <c r="M4" s="5"/>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A5" s="1"/>
-      <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
+      <c r="I4" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="J4" s="4"/>
+      <c r="K4" s="1"/>
+      <c r="L4" s="5"/>
+      <c r="M4" s="1"/>
+      <c r="N4" s="5"/>
+    </row>
+    <row r="5" spans="1:14" ht="195" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>22</v>
+      </c>
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
-      <c r="G5" s="4"/>
+      <c r="G5" s="1"/>
       <c r="H5" s="4"/>
       <c r="I5" s="4"/>
       <c r="J5" s="4"/>
-      <c r="K5" s="5"/>
-      <c r="L5" s="1"/>
+      <c r="K5" s="4"/>
+      <c r="L5" s="5"/>
       <c r="M5" s="1"/>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N5" s="1"/>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
@@ -2062,14 +2141,15 @@
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
       <c r="G6" s="1"/>
-      <c r="H6" s="4"/>
-      <c r="I6" s="1"/>
+      <c r="H6" s="1"/>
+      <c r="I6" s="4"/>
       <c r="J6" s="1"/>
       <c r="K6" s="1"/>
       <c r="L6" s="1"/>
       <c r="M6" s="1"/>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N6" s="1"/>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
@@ -2077,14 +2157,15 @@
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
-      <c r="H7" s="4"/>
-      <c r="I7" s="1"/>
+      <c r="H7" s="1"/>
+      <c r="I7" s="4"/>
       <c r="J7" s="1"/>
       <c r="K7" s="1"/>
       <c r="L7" s="1"/>
       <c r="M7" s="1"/>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N7" s="1"/>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
@@ -2092,14 +2173,15 @@
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
-      <c r="H8" s="4"/>
-      <c r="I8" s="1"/>
+      <c r="H8" s="1"/>
+      <c r="I8" s="4"/>
       <c r="J8" s="1"/>
       <c r="K8" s="1"/>
       <c r="L8" s="1"/>
       <c r="M8" s="1"/>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N8" s="1"/>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
@@ -2108,28 +2190,30 @@
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
-      <c r="I9" s="4"/>
-      <c r="J9" s="1"/>
-      <c r="K9" s="5"/>
-      <c r="L9" s="1"/>
-      <c r="M9" s="5"/>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="I9" s="1"/>
+      <c r="J9" s="4"/>
+      <c r="K9" s="1"/>
+      <c r="L9" s="5"/>
+      <c r="M9" s="1"/>
+      <c r="N9" s="5"/>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
-      <c r="G10" s="4"/>
+      <c r="G10" s="1"/>
       <c r="H10" s="4"/>
-      <c r="I10" s="1"/>
-      <c r="J10" s="10"/>
-      <c r="K10" s="1"/>
-      <c r="L10" s="10"/>
-      <c r="M10" s="1"/>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="I10" s="4"/>
+      <c r="J10" s="1"/>
+      <c r="K10" s="10"/>
+      <c r="L10" s="1"/>
+      <c r="M10" s="10"/>
+      <c r="N10" s="1"/>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
@@ -2137,29 +2221,31 @@
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
       <c r="G11" s="1"/>
-      <c r="H11" s="4"/>
+      <c r="H11" s="1"/>
       <c r="I11" s="4"/>
-      <c r="J11" s="1"/>
+      <c r="J11" s="4"/>
       <c r="K11" s="1"/>
       <c r="L11" s="1"/>
       <c r="M11" s="1"/>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N11" s="1"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
-      <c r="G12" s="4"/>
+      <c r="G12" s="1"/>
       <c r="H12" s="4"/>
       <c r="I12" s="4"/>
-      <c r="J12" s="1"/>
+      <c r="J12" s="4"/>
       <c r="K12" s="1"/>
       <c r="L12" s="1"/>
       <c r="M12" s="1"/>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N12" s="1"/>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
@@ -2167,14 +2253,15 @@
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
       <c r="G13" s="1"/>
-      <c r="H13" s="4"/>
+      <c r="H13" s="1"/>
       <c r="I13" s="4"/>
-      <c r="J13" s="1"/>
+      <c r="J13" s="4"/>
       <c r="K13" s="1"/>
       <c r="L13" s="1"/>
       <c r="M13" s="1"/>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N13" s="1"/>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
@@ -2183,13 +2270,14 @@
       <c r="F14" s="1"/>
       <c r="G14" s="1"/>
       <c r="H14" s="1"/>
-      <c r="I14" s="4"/>
-      <c r="J14" s="1"/>
+      <c r="I14" s="1"/>
+      <c r="J14" s="4"/>
       <c r="K14" s="1"/>
       <c r="L14" s="1"/>
       <c r="M14" s="1"/>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N14" s="1"/>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
@@ -2197,14 +2285,15 @@
       <c r="E15" s="1"/>
       <c r="F15" s="1"/>
       <c r="G15" s="1"/>
-      <c r="H15" s="4"/>
+      <c r="H15" s="1"/>
       <c r="I15" s="4"/>
-      <c r="J15" s="1"/>
+      <c r="J15" s="4"/>
       <c r="K15" s="1"/>
       <c r="L15" s="1"/>
       <c r="M15" s="1"/>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N15" s="1"/>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16" s="12"/>
       <c r="B16" s="12"/>
       <c r="C16" s="12"/>
@@ -2212,14 +2301,15 @@
       <c r="E16" s="12"/>
       <c r="F16" s="12"/>
       <c r="G16" s="12"/>
-      <c r="H16" s="1"/>
+      <c r="H16" s="12"/>
       <c r="I16" s="1"/>
       <c r="J16" s="1"/>
       <c r="K16" s="1"/>
       <c r="L16" s="1"/>
       <c r="M16" s="1"/>
-    </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N16" s="1"/>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A17" s="1"/>
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
@@ -2227,14 +2317,15 @@
       <c r="E17" s="1"/>
       <c r="F17" s="1"/>
       <c r="G17" s="1"/>
-      <c r="H17" s="4"/>
+      <c r="H17" s="1"/>
       <c r="I17" s="4"/>
       <c r="J17" s="4"/>
-      <c r="K17" s="9"/>
-      <c r="L17" s="4"/>
-      <c r="M17" s="9"/>
-    </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="K17" s="4"/>
+      <c r="L17" s="9"/>
+      <c r="M17" s="4"/>
+      <c r="N17" s="9"/>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A18" s="1"/>
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
@@ -2242,14 +2333,15 @@
       <c r="E18" s="1"/>
       <c r="F18" s="1"/>
       <c r="G18" s="1"/>
-      <c r="H18" s="4"/>
+      <c r="H18" s="1"/>
       <c r="I18" s="4"/>
-      <c r="J18" s="1"/>
-      <c r="K18" s="5"/>
-      <c r="L18" s="4"/>
-      <c r="M18" s="9"/>
-    </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="J18" s="4"/>
+      <c r="K18" s="1"/>
+      <c r="L18" s="5"/>
+      <c r="M18" s="4"/>
+      <c r="N18" s="9"/>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A19" s="1"/>
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
@@ -2257,14 +2349,15 @@
       <c r="E19" s="1"/>
       <c r="F19" s="1"/>
       <c r="G19" s="1"/>
-      <c r="H19" s="4"/>
+      <c r="H19" s="1"/>
       <c r="I19" s="4"/>
-      <c r="J19" s="1"/>
+      <c r="J19" s="4"/>
       <c r="K19" s="1"/>
       <c r="L19" s="1"/>
       <c r="M19" s="1"/>
-    </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N19" s="1"/>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A20" s="1"/>
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
@@ -2272,44 +2365,47 @@
       <c r="E20" s="1"/>
       <c r="F20" s="1"/>
       <c r="G20" s="1"/>
-      <c r="H20" s="4"/>
+      <c r="H20" s="1"/>
       <c r="I20" s="4"/>
-      <c r="J20" s="1"/>
+      <c r="J20" s="4"/>
       <c r="K20" s="1"/>
       <c r="L20" s="1"/>
       <c r="M20" s="1"/>
-    </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N20" s="1"/>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A21" s="1"/>
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
       <c r="E21" s="1"/>
       <c r="F21" s="1"/>
-      <c r="G21" s="4"/>
+      <c r="G21" s="1"/>
       <c r="H21" s="4"/>
       <c r="I21" s="4"/>
-      <c r="J21" s="1"/>
+      <c r="J21" s="4"/>
       <c r="K21" s="1"/>
       <c r="L21" s="1"/>
       <c r="M21" s="1"/>
-    </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N21" s="1"/>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A22" s="1"/>
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
       <c r="E22" s="1"/>
       <c r="F22" s="1"/>
-      <c r="G22" s="4"/>
+      <c r="G22" s="1"/>
       <c r="H22" s="4"/>
-      <c r="I22" s="1"/>
+      <c r="I22" s="4"/>
       <c r="J22" s="1"/>
-      <c r="K22" s="5"/>
-      <c r="L22" s="1"/>
+      <c r="K22" s="1"/>
+      <c r="L22" s="5"/>
       <c r="M22" s="1"/>
-    </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N22" s="1"/>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A23" s="3"/>
       <c r="B23" s="3"/>
       <c r="C23" s="3"/>
@@ -2318,13 +2414,14 @@
       <c r="F23" s="3"/>
       <c r="G23" s="3"/>
       <c r="H23" s="3"/>
-      <c r="I23" s="4"/>
-      <c r="J23" s="1"/>
+      <c r="I23" s="3"/>
+      <c r="J23" s="4"/>
       <c r="K23" s="1"/>
       <c r="L23" s="1"/>
       <c r="M23" s="1"/>
-    </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N23" s="1"/>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A24" s="1"/>
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
@@ -2332,14 +2429,15 @@
       <c r="E24" s="1"/>
       <c r="F24" s="1"/>
       <c r="G24" s="1"/>
-      <c r="H24" s="4"/>
-      <c r="I24" s="1"/>
+      <c r="H24" s="1"/>
+      <c r="I24" s="4"/>
       <c r="J24" s="1"/>
-      <c r="K24" s="5"/>
-      <c r="L24" s="1"/>
+      <c r="K24" s="1"/>
+      <c r="L24" s="5"/>
       <c r="M24" s="1"/>
-    </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N24" s="1"/>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A25" s="1"/>
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
@@ -2347,14 +2445,15 @@
       <c r="E25" s="1"/>
       <c r="F25" s="1"/>
       <c r="G25" s="1"/>
-      <c r="H25" s="4"/>
+      <c r="H25" s="1"/>
       <c r="I25" s="4"/>
-      <c r="J25" s="1"/>
+      <c r="J25" s="4"/>
       <c r="K25" s="1"/>
       <c r="L25" s="1"/>
-      <c r="M25" s="5"/>
-    </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="M25" s="1"/>
+      <c r="N25" s="5"/>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A26" s="1"/>
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
@@ -2362,29 +2461,31 @@
       <c r="E26" s="1"/>
       <c r="F26" s="1"/>
       <c r="G26" s="1"/>
-      <c r="H26" s="4"/>
+      <c r="H26" s="1"/>
       <c r="I26" s="4"/>
-      <c r="J26" s="1"/>
+      <c r="J26" s="4"/>
       <c r="K26" s="1"/>
-      <c r="L26" s="4"/>
-      <c r="M26" s="1"/>
-    </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="L26" s="1"/>
+      <c r="M26" s="4"/>
+      <c r="N26" s="1"/>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A27" s="1"/>
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
       <c r="D27" s="1"/>
       <c r="E27" s="1"/>
       <c r="F27" s="1"/>
-      <c r="G27" s="4"/>
+      <c r="G27" s="1"/>
       <c r="H27" s="4"/>
       <c r="I27" s="4"/>
-      <c r="J27" s="1"/>
+      <c r="J27" s="4"/>
       <c r="K27" s="1"/>
       <c r="L27" s="1"/>
       <c r="M27" s="1"/>
-    </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N27" s="1"/>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A28" s="1"/>
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
@@ -2392,14 +2493,15 @@
       <c r="E28" s="1"/>
       <c r="F28" s="1"/>
       <c r="G28" s="1"/>
-      <c r="H28" s="4"/>
+      <c r="H28" s="1"/>
       <c r="I28" s="4"/>
-      <c r="J28" s="1"/>
-      <c r="K28" s="5"/>
-      <c r="L28" s="1"/>
-      <c r="M28" s="5"/>
-    </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="J28" s="4"/>
+      <c r="K28" s="1"/>
+      <c r="L28" s="5"/>
+      <c r="M28" s="1"/>
+      <c r="N28" s="5"/>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A29" s="1"/>
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
@@ -2407,59 +2509,63 @@
       <c r="E29" s="1"/>
       <c r="F29" s="1"/>
       <c r="G29" s="1"/>
-      <c r="H29" s="4"/>
-      <c r="I29" s="1"/>
+      <c r="H29" s="1"/>
+      <c r="I29" s="4"/>
       <c r="J29" s="1"/>
       <c r="K29" s="1"/>
       <c r="L29" s="1"/>
-      <c r="M29" s="5"/>
-    </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="M29" s="1"/>
+      <c r="N29" s="5"/>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A30" s="1"/>
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
       <c r="D30" s="1"/>
       <c r="E30" s="1"/>
       <c r="F30" s="1"/>
-      <c r="G30" s="4"/>
+      <c r="G30" s="1"/>
       <c r="H30" s="4"/>
-      <c r="I30" s="1"/>
+      <c r="I30" s="4"/>
       <c r="J30" s="1"/>
       <c r="K30" s="1"/>
       <c r="L30" s="1"/>
       <c r="M30" s="1"/>
-    </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N30" s="1"/>
+    </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A31" s="1"/>
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
       <c r="D31" s="1"/>
       <c r="E31" s="1"/>
       <c r="F31" s="1"/>
-      <c r="G31" s="4"/>
+      <c r="G31" s="1"/>
       <c r="H31" s="4"/>
       <c r="I31" s="4"/>
-      <c r="J31" s="1"/>
+      <c r="J31" s="4"/>
       <c r="K31" s="1"/>
       <c r="L31" s="1"/>
       <c r="M31" s="1"/>
-    </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N31" s="1"/>
+    </row>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A32" s="1"/>
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
       <c r="D32" s="1"/>
       <c r="E32" s="1"/>
       <c r="F32" s="1"/>
-      <c r="G32" s="4"/>
+      <c r="G32" s="1"/>
       <c r="H32" s="4"/>
-      <c r="I32" s="1"/>
+      <c r="I32" s="4"/>
       <c r="J32" s="1"/>
-      <c r="K32" s="5"/>
-      <c r="L32" s="1"/>
+      <c r="K32" s="1"/>
+      <c r="L32" s="5"/>
       <c r="M32" s="1"/>
-    </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N32" s="1"/>
+    </row>
+    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A33" s="1"/>
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
@@ -2467,14 +2573,15 @@
       <c r="E33" s="1"/>
       <c r="F33" s="1"/>
       <c r="G33" s="1"/>
-      <c r="H33" s="4"/>
+      <c r="H33" s="1"/>
       <c r="I33" s="4"/>
       <c r="J33" s="4"/>
-      <c r="K33" s="1"/>
+      <c r="K33" s="4"/>
       <c r="L33" s="1"/>
       <c r="M33" s="1"/>
-    </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N33" s="1"/>
+    </row>
+    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A34" s="1"/>
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
@@ -2482,29 +2589,31 @@
       <c r="E34" s="1"/>
       <c r="F34" s="1"/>
       <c r="G34" s="1"/>
-      <c r="H34" s="4"/>
+      <c r="H34" s="1"/>
       <c r="I34" s="4"/>
-      <c r="J34" s="1"/>
-      <c r="K34" s="5"/>
-      <c r="L34" s="1"/>
+      <c r="J34" s="4"/>
+      <c r="K34" s="1"/>
+      <c r="L34" s="5"/>
       <c r="M34" s="1"/>
-    </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N34" s="1"/>
+    </row>
+    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A35" s="1"/>
       <c r="B35" s="1"/>
       <c r="C35" s="1"/>
       <c r="D35" s="1"/>
       <c r="E35" s="1"/>
       <c r="F35" s="1"/>
-      <c r="G35" s="4"/>
+      <c r="G35" s="1"/>
       <c r="H35" s="4"/>
       <c r="I35" s="4"/>
-      <c r="J35" s="1"/>
+      <c r="J35" s="4"/>
       <c r="K35" s="1"/>
       <c r="L35" s="1"/>
-      <c r="M35" s="5"/>
-    </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="M35" s="1"/>
+      <c r="N35" s="5"/>
+    </row>
+    <row r="36" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A36" s="1"/>
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
@@ -2512,29 +2621,31 @@
       <c r="E36" s="1"/>
       <c r="F36" s="1"/>
       <c r="G36" s="1"/>
-      <c r="H36" s="4"/>
-      <c r="I36" s="1"/>
+      <c r="H36" s="1"/>
+      <c r="I36" s="4"/>
       <c r="J36" s="1"/>
       <c r="K36" s="1"/>
       <c r="L36" s="1"/>
       <c r="M36" s="1"/>
-    </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N36" s="1"/>
+    </row>
+    <row r="37" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A37" s="1"/>
       <c r="B37" s="1"/>
       <c r="C37" s="1"/>
       <c r="D37" s="1"/>
       <c r="E37" s="1"/>
       <c r="F37" s="1"/>
-      <c r="G37" s="4"/>
+      <c r="G37" s="1"/>
       <c r="H37" s="4"/>
-      <c r="I37" s="1"/>
-      <c r="J37" s="4"/>
-      <c r="K37" s="5"/>
-      <c r="L37" s="1"/>
+      <c r="I37" s="4"/>
+      <c r="J37" s="1"/>
+      <c r="K37" s="4"/>
+      <c r="L37" s="5"/>
       <c r="M37" s="1"/>
-    </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N37" s="1"/>
+    </row>
+    <row r="38" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A38" s="1"/>
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
@@ -2542,14 +2653,15 @@
       <c r="E38" s="1"/>
       <c r="F38" s="1"/>
       <c r="G38" s="1"/>
-      <c r="H38" s="4"/>
-      <c r="I38" s="1"/>
+      <c r="H38" s="1"/>
+      <c r="I38" s="4"/>
       <c r="J38" s="1"/>
-      <c r="K38" s="5"/>
-      <c r="L38" s="1"/>
+      <c r="K38" s="1"/>
+      <c r="L38" s="5"/>
       <c r="M38" s="1"/>
-    </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N38" s="1"/>
+    </row>
+    <row r="39" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A39" s="1"/>
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
@@ -2557,14 +2669,15 @@
       <c r="E39" s="1"/>
       <c r="F39" s="1"/>
       <c r="G39" s="1"/>
-      <c r="H39" s="4"/>
-      <c r="I39" s="1"/>
+      <c r="H39" s="1"/>
+      <c r="I39" s="4"/>
       <c r="J39" s="1"/>
       <c r="K39" s="1"/>
       <c r="L39" s="1"/>
       <c r="M39" s="1"/>
-    </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N39" s="1"/>
+    </row>
+    <row r="40" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A40" s="1"/>
       <c r="B40" s="1"/>
       <c r="C40" s="1"/>
@@ -2572,14 +2685,15 @@
       <c r="E40" s="1"/>
       <c r="F40" s="1"/>
       <c r="G40" s="1"/>
-      <c r="H40" s="4"/>
-      <c r="I40" s="1"/>
-      <c r="J40" s="4"/>
-      <c r="K40" s="5"/>
-      <c r="L40" s="1"/>
+      <c r="H40" s="1"/>
+      <c r="I40" s="4"/>
+      <c r="J40" s="1"/>
+      <c r="K40" s="4"/>
+      <c r="L40" s="5"/>
       <c r="M40" s="1"/>
-    </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N40" s="1"/>
+    </row>
+    <row r="41" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A41" s="1"/>
       <c r="B41" s="1"/>
       <c r="C41" s="1"/>
@@ -2587,14 +2701,15 @@
       <c r="E41" s="1"/>
       <c r="F41" s="1"/>
       <c r="G41" s="1"/>
-      <c r="H41" s="4"/>
+      <c r="H41" s="1"/>
       <c r="I41" s="4"/>
-      <c r="J41" s="1"/>
+      <c r="J41" s="4"/>
       <c r="K41" s="1"/>
       <c r="L41" s="1"/>
       <c r="M41" s="1"/>
-    </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N41" s="1"/>
+    </row>
+    <row r="42" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A42" s="1"/>
       <c r="B42" s="1"/>
       <c r="C42" s="1"/>
@@ -2602,14 +2717,15 @@
       <c r="E42" s="1"/>
       <c r="F42" s="1"/>
       <c r="G42" s="1"/>
-      <c r="H42" s="4"/>
-      <c r="I42" s="1"/>
+      <c r="H42" s="1"/>
+      <c r="I42" s="4"/>
       <c r="J42" s="1"/>
       <c r="K42" s="1"/>
       <c r="L42" s="1"/>
       <c r="M42" s="1"/>
-    </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N42" s="1"/>
+    </row>
+    <row r="43" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A43" s="1"/>
       <c r="B43" s="1"/>
       <c r="C43" s="1"/>
@@ -2617,14 +2733,15 @@
       <c r="E43" s="1"/>
       <c r="F43" s="1"/>
       <c r="G43" s="1"/>
-      <c r="H43" s="4"/>
+      <c r="H43" s="1"/>
       <c r="I43" s="4"/>
-      <c r="J43" s="1"/>
-      <c r="K43" s="5"/>
-      <c r="L43" s="1"/>
-      <c r="M43" s="5"/>
-    </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="J43" s="4"/>
+      <c r="K43" s="1"/>
+      <c r="L43" s="5"/>
+      <c r="M43" s="1"/>
+      <c r="N43" s="5"/>
+    </row>
+    <row r="44" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A44" s="1"/>
       <c r="B44" s="1"/>
       <c r="C44" s="1"/>
@@ -2632,44 +2749,47 @@
       <c r="E44" s="1"/>
       <c r="F44" s="1"/>
       <c r="G44" s="1"/>
-      <c r="H44" s="4"/>
-      <c r="I44" s="1"/>
+      <c r="H44" s="1"/>
+      <c r="I44" s="4"/>
       <c r="J44" s="1"/>
       <c r="K44" s="1"/>
       <c r="L44" s="1"/>
-      <c r="M44" s="5"/>
-    </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="M44" s="1"/>
+      <c r="N44" s="5"/>
+    </row>
+    <row r="45" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A45" s="1"/>
       <c r="B45" s="1"/>
       <c r="C45" s="1"/>
       <c r="D45" s="1"/>
       <c r="E45" s="1"/>
       <c r="F45" s="1"/>
-      <c r="G45" s="4"/>
+      <c r="G45" s="1"/>
       <c r="H45" s="4"/>
       <c r="I45" s="4"/>
-      <c r="J45" s="1"/>
+      <c r="J45" s="4"/>
       <c r="K45" s="1"/>
       <c r="L45" s="1"/>
       <c r="M45" s="1"/>
-    </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N45" s="1"/>
+    </row>
+    <row r="46" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A46" s="1"/>
       <c r="B46" s="1"/>
       <c r="C46" s="1"/>
       <c r="D46" s="1"/>
       <c r="E46" s="1"/>
       <c r="F46" s="1"/>
-      <c r="G46" s="4"/>
+      <c r="G46" s="1"/>
       <c r="H46" s="4"/>
       <c r="I46" s="4"/>
       <c r="J46" s="4"/>
-      <c r="K46" s="5"/>
-      <c r="L46" s="1"/>
+      <c r="K46" s="4"/>
+      <c r="L46" s="5"/>
       <c r="M46" s="1"/>
-    </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N46" s="1"/>
+    </row>
+    <row r="47" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A47" s="1"/>
       <c r="B47" s="1"/>
       <c r="C47" s="1"/>
@@ -2677,14 +2797,15 @@
       <c r="E47" s="1"/>
       <c r="F47" s="1"/>
       <c r="G47" s="1"/>
-      <c r="H47" s="4"/>
+      <c r="H47" s="1"/>
       <c r="I47" s="4"/>
-      <c r="J47" s="1"/>
-      <c r="K47" s="5"/>
-      <c r="L47" s="4"/>
-      <c r="M47" s="5"/>
-    </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="J47" s="4"/>
+      <c r="K47" s="1"/>
+      <c r="L47" s="5"/>
+      <c r="M47" s="4"/>
+      <c r="N47" s="5"/>
+    </row>
+    <row r="48" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A48" s="1"/>
       <c r="B48" s="1"/>
       <c r="C48" s="1"/>
@@ -2692,14 +2813,15 @@
       <c r="E48" s="1"/>
       <c r="F48" s="1"/>
       <c r="G48" s="1"/>
-      <c r="H48" s="4"/>
+      <c r="H48" s="1"/>
       <c r="I48" s="4"/>
-      <c r="J48" s="1"/>
-      <c r="K48" s="5"/>
-      <c r="L48" s="1"/>
-      <c r="M48" s="5"/>
-    </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="J48" s="4"/>
+      <c r="K48" s="1"/>
+      <c r="L48" s="5"/>
+      <c r="M48" s="1"/>
+      <c r="N48" s="5"/>
+    </row>
+    <row r="49" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A49" s="1"/>
       <c r="B49" s="1"/>
       <c r="C49" s="1"/>
@@ -2707,14 +2829,15 @@
       <c r="E49" s="1"/>
       <c r="F49" s="1"/>
       <c r="G49" s="1"/>
-      <c r="H49" s="4"/>
+      <c r="H49" s="1"/>
       <c r="I49" s="4"/>
-      <c r="J49" s="1"/>
+      <c r="J49" s="4"/>
       <c r="K49" s="1"/>
       <c r="L49" s="1"/>
       <c r="M49" s="1"/>
-    </row>
-    <row r="50" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N49" s="1"/>
+    </row>
+    <row r="50" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A50" s="1"/>
       <c r="B50" s="1"/>
       <c r="C50" s="1"/>
@@ -2722,14 +2845,15 @@
       <c r="E50" s="1"/>
       <c r="F50" s="1"/>
       <c r="G50" s="1"/>
-      <c r="H50" s="4"/>
+      <c r="H50" s="1"/>
       <c r="I50" s="4"/>
       <c r="J50" s="4"/>
-      <c r="K50" s="5"/>
-      <c r="L50" s="1"/>
-      <c r="M50" s="5"/>
-    </row>
-    <row r="51" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="K50" s="4"/>
+      <c r="L50" s="5"/>
+      <c r="M50" s="1"/>
+      <c r="N50" s="5"/>
+    </row>
+    <row r="51" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A51" s="1"/>
       <c r="B51" s="1"/>
       <c r="C51" s="1"/>
@@ -2737,14 +2861,15 @@
       <c r="E51" s="1"/>
       <c r="F51" s="1"/>
       <c r="G51" s="1"/>
-      <c r="H51" s="4"/>
-      <c r="I51" s="1"/>
+      <c r="H51" s="1"/>
+      <c r="I51" s="4"/>
       <c r="J51" s="1"/>
       <c r="K51" s="1"/>
       <c r="L51" s="1"/>
       <c r="M51" s="1"/>
-    </row>
-    <row r="52" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N51" s="1"/>
+    </row>
+    <row r="52" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A52" s="1"/>
       <c r="B52" s="1"/>
       <c r="C52" s="1"/>
@@ -2753,13 +2878,14 @@
       <c r="F52" s="1"/>
       <c r="G52" s="1"/>
       <c r="H52" s="1"/>
-      <c r="I52" s="4"/>
-      <c r="J52" s="1"/>
+      <c r="I52" s="1"/>
+      <c r="J52" s="4"/>
       <c r="K52" s="1"/>
       <c r="L52" s="1"/>
       <c r="M52" s="1"/>
-    </row>
-    <row r="53" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N52" s="1"/>
+    </row>
+    <row r="53" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A53" s="1"/>
       <c r="B53" s="1"/>
       <c r="C53" s="1"/>
@@ -2767,14 +2893,15 @@
       <c r="E53" s="1"/>
       <c r="F53" s="1"/>
       <c r="G53" s="1"/>
-      <c r="H53" s="4"/>
+      <c r="H53" s="1"/>
       <c r="I53" s="4"/>
-      <c r="J53" s="1"/>
+      <c r="J53" s="4"/>
       <c r="K53" s="1"/>
       <c r="L53" s="1"/>
       <c r="M53" s="1"/>
-    </row>
-    <row r="54" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N53" s="1"/>
+    </row>
+    <row r="54" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A54" s="1"/>
       <c r="B54" s="1"/>
       <c r="C54" s="1"/>
@@ -2782,14 +2909,15 @@
       <c r="E54" s="1"/>
       <c r="F54" s="1"/>
       <c r="G54" s="1"/>
-      <c r="H54" s="4"/>
+      <c r="H54" s="1"/>
       <c r="I54" s="4"/>
-      <c r="J54" s="1"/>
-      <c r="K54" s="5"/>
-      <c r="L54" s="1"/>
-      <c r="M54" s="5"/>
-    </row>
-    <row r="55" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="J54" s="4"/>
+      <c r="K54" s="1"/>
+      <c r="L54" s="5"/>
+      <c r="M54" s="1"/>
+      <c r="N54" s="5"/>
+    </row>
+    <row r="55" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A55" s="1"/>
       <c r="B55" s="1"/>
       <c r="C55" s="1"/>
@@ -2800,11 +2928,12 @@
       <c r="H55" s="1"/>
       <c r="I55" s="1"/>
       <c r="J55" s="1"/>
-      <c r="K55" s="5"/>
-      <c r="L55" s="1"/>
-      <c r="M55" s="5"/>
-    </row>
-    <row r="56" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="K55" s="1"/>
+      <c r="L55" s="5"/>
+      <c r="M55" s="1"/>
+      <c r="N55" s="5"/>
+    </row>
+    <row r="56" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A56" s="1"/>
       <c r="B56" s="1"/>
       <c r="C56" s="1"/>
@@ -2812,14 +2941,15 @@
       <c r="E56" s="1"/>
       <c r="F56" s="1"/>
       <c r="G56" s="1"/>
-      <c r="H56" s="4"/>
+      <c r="H56" s="1"/>
       <c r="I56" s="4"/>
-      <c r="J56" s="1"/>
+      <c r="J56" s="4"/>
       <c r="K56" s="1"/>
       <c r="L56" s="1"/>
       <c r="M56" s="1"/>
-    </row>
-    <row r="57" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N56" s="1"/>
+    </row>
+    <row r="57" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A57" s="1"/>
       <c r="B57" s="1"/>
       <c r="C57" s="1"/>
@@ -2827,14 +2957,15 @@
       <c r="E57" s="1"/>
       <c r="F57" s="1"/>
       <c r="G57" s="1"/>
-      <c r="H57" s="4"/>
+      <c r="H57" s="1"/>
       <c r="I57" s="4"/>
-      <c r="J57" s="10"/>
-      <c r="K57" s="5"/>
-      <c r="L57" s="10"/>
-      <c r="M57" s="5"/>
-    </row>
-    <row r="58" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="J57" s="4"/>
+      <c r="K57" s="10"/>
+      <c r="L57" s="5"/>
+      <c r="M57" s="10"/>
+      <c r="N57" s="5"/>
+    </row>
+    <row r="58" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A58" s="1"/>
       <c r="B58" s="1"/>
       <c r="C58" s="1"/>
@@ -2842,29 +2973,31 @@
       <c r="E58" s="1"/>
       <c r="F58" s="1"/>
       <c r="G58" s="1"/>
-      <c r="H58" s="4"/>
-      <c r="I58" s="1"/>
+      <c r="H58" s="1"/>
+      <c r="I58" s="4"/>
       <c r="J58" s="1"/>
       <c r="K58" s="1"/>
       <c r="L58" s="1"/>
       <c r="M58" s="1"/>
-    </row>
-    <row r="59" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N58" s="1"/>
+    </row>
+    <row r="59" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A59" s="1"/>
       <c r="B59" s="1"/>
       <c r="C59" s="1"/>
       <c r="D59" s="1"/>
       <c r="E59" s="1"/>
       <c r="F59" s="1"/>
-      <c r="G59" s="4"/>
+      <c r="G59" s="1"/>
       <c r="H59" s="4"/>
       <c r="I59" s="4"/>
-      <c r="J59" s="1"/>
-      <c r="K59" s="5"/>
-      <c r="L59" s="1"/>
+      <c r="J59" s="4"/>
+      <c r="K59" s="1"/>
+      <c r="L59" s="5"/>
       <c r="M59" s="1"/>
-    </row>
-    <row r="60" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N59" s="1"/>
+    </row>
+    <row r="60" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A60" s="1"/>
       <c r="B60" s="1"/>
       <c r="C60" s="1"/>
@@ -2872,14 +3005,15 @@
       <c r="E60" s="1"/>
       <c r="F60" s="1"/>
       <c r="G60" s="1"/>
-      <c r="H60" s="4"/>
-      <c r="I60" s="1"/>
+      <c r="H60" s="1"/>
+      <c r="I60" s="4"/>
       <c r="J60" s="1"/>
       <c r="K60" s="1"/>
       <c r="L60" s="1"/>
       <c r="M60" s="1"/>
-    </row>
-    <row r="61" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N60" s="1"/>
+    </row>
+    <row r="61" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A61" s="1"/>
       <c r="B61" s="1"/>
       <c r="C61" s="1"/>
@@ -2887,14 +3021,15 @@
       <c r="E61" s="1"/>
       <c r="F61" s="1"/>
       <c r="G61" s="1"/>
-      <c r="H61" s="4"/>
+      <c r="H61" s="1"/>
       <c r="I61" s="4"/>
-      <c r="J61" s="1"/>
+      <c r="J61" s="4"/>
       <c r="K61" s="1"/>
-      <c r="L61" s="4"/>
-      <c r="M61" s="1"/>
-    </row>
-    <row r="62" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="L61" s="1"/>
+      <c r="M61" s="4"/>
+      <c r="N61" s="1"/>
+    </row>
+    <row r="62" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A62" s="1"/>
       <c r="B62" s="1"/>
       <c r="C62" s="1"/>
@@ -2902,14 +3037,15 @@
       <c r="E62" s="1"/>
       <c r="F62" s="1"/>
       <c r="G62" s="1"/>
-      <c r="H62" s="4"/>
-      <c r="I62" s="1"/>
-      <c r="J62" s="4"/>
-      <c r="K62" s="5"/>
-      <c r="L62" s="4"/>
-      <c r="M62" s="5"/>
-    </row>
-    <row r="63" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="H62" s="1"/>
+      <c r="I62" s="4"/>
+      <c r="J62" s="1"/>
+      <c r="K62" s="4"/>
+      <c r="L62" s="5"/>
+      <c r="M62" s="4"/>
+      <c r="N62" s="5"/>
+    </row>
+    <row r="63" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A63" s="1"/>
       <c r="B63" s="1"/>
       <c r="C63" s="1"/>
@@ -2918,13 +3054,14 @@
       <c r="F63" s="1"/>
       <c r="G63" s="1"/>
       <c r="H63" s="1"/>
-      <c r="I63" s="4"/>
-      <c r="J63" s="1"/>
-      <c r="K63" s="5"/>
-      <c r="L63" s="4"/>
-      <c r="M63" s="5"/>
-    </row>
-    <row r="64" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="I63" s="1"/>
+      <c r="J63" s="4"/>
+      <c r="K63" s="1"/>
+      <c r="L63" s="5"/>
+      <c r="M63" s="4"/>
+      <c r="N63" s="5"/>
+    </row>
+    <row r="64" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A64" s="1"/>
       <c r="B64" s="1"/>
       <c r="C64" s="1"/>
@@ -2932,14 +3069,15 @@
       <c r="E64" s="1"/>
       <c r="F64" s="1"/>
       <c r="G64" s="1"/>
-      <c r="H64" s="4"/>
-      <c r="I64" s="1"/>
+      <c r="H64" s="1"/>
+      <c r="I64" s="4"/>
       <c r="J64" s="1"/>
       <c r="K64" s="1"/>
       <c r="L64" s="1"/>
       <c r="M64" s="1"/>
-    </row>
-    <row r="65" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N64" s="1"/>
+    </row>
+    <row r="65" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A65" s="1"/>
       <c r="B65" s="1"/>
       <c r="C65" s="1"/>
@@ -2947,14 +3085,15 @@
       <c r="E65" s="1"/>
       <c r="F65" s="1"/>
       <c r="G65" s="1"/>
-      <c r="H65" s="4"/>
+      <c r="H65" s="1"/>
       <c r="I65" s="4"/>
-      <c r="J65" s="1"/>
+      <c r="J65" s="4"/>
       <c r="K65" s="1"/>
       <c r="L65" s="1"/>
-      <c r="M65" s="5"/>
-    </row>
-    <row r="66" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="M65" s="1"/>
+      <c r="N65" s="5"/>
+    </row>
+    <row r="66" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A66" s="1"/>
       <c r="B66" s="1"/>
       <c r="C66" s="1"/>
@@ -2962,14 +3101,15 @@
       <c r="E66" s="1"/>
       <c r="F66" s="1"/>
       <c r="G66" s="1"/>
-      <c r="H66" s="4"/>
-      <c r="I66" s="1"/>
+      <c r="H66" s="1"/>
+      <c r="I66" s="4"/>
       <c r="J66" s="1"/>
       <c r="K66" s="1"/>
       <c r="L66" s="1"/>
       <c r="M66" s="1"/>
-    </row>
-    <row r="67" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N66" s="1"/>
+    </row>
+    <row r="67" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A67" s="1"/>
       <c r="B67" s="1"/>
       <c r="C67" s="1"/>
@@ -2977,14 +3117,15 @@
       <c r="E67" s="1"/>
       <c r="F67" s="1"/>
       <c r="G67" s="1"/>
-      <c r="H67" s="4"/>
+      <c r="H67" s="1"/>
       <c r="I67" s="4"/>
-      <c r="J67" s="1"/>
-      <c r="K67" s="5"/>
-      <c r="L67" s="1"/>
-      <c r="M67" s="5"/>
-    </row>
-    <row r="68" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="J67" s="4"/>
+      <c r="K67" s="1"/>
+      <c r="L67" s="5"/>
+      <c r="M67" s="1"/>
+      <c r="N67" s="5"/>
+    </row>
+    <row r="68" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A68" s="1"/>
       <c r="B68" s="1"/>
       <c r="C68" s="1"/>
@@ -2993,13 +3134,14 @@
       <c r="F68" s="1"/>
       <c r="G68" s="1"/>
       <c r="H68" s="1"/>
-      <c r="I68" s="4"/>
-      <c r="J68" s="1"/>
-      <c r="K68" s="5"/>
-      <c r="L68" s="1"/>
+      <c r="I68" s="1"/>
+      <c r="J68" s="4"/>
+      <c r="K68" s="1"/>
+      <c r="L68" s="5"/>
       <c r="M68" s="1"/>
-    </row>
-    <row r="69" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N68" s="1"/>
+    </row>
+    <row r="69" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A69" s="1"/>
       <c r="B69" s="1"/>
       <c r="C69" s="1"/>
@@ -3007,14 +3149,15 @@
       <c r="E69" s="1"/>
       <c r="F69" s="1"/>
       <c r="G69" s="1"/>
-      <c r="H69" s="4"/>
+      <c r="H69" s="1"/>
       <c r="I69" s="4"/>
-      <c r="J69" s="1"/>
+      <c r="J69" s="4"/>
       <c r="K69" s="1"/>
       <c r="L69" s="1"/>
       <c r="M69" s="1"/>
-    </row>
-    <row r="70" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N69" s="1"/>
+    </row>
+    <row r="70" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A70" s="1"/>
       <c r="B70" s="1"/>
       <c r="C70" s="1"/>
@@ -3023,13 +3166,14 @@
       <c r="F70" s="1"/>
       <c r="G70" s="1"/>
       <c r="H70" s="1"/>
-      <c r="I70" s="4"/>
-      <c r="J70" s="1"/>
+      <c r="I70" s="1"/>
+      <c r="J70" s="4"/>
       <c r="K70" s="1"/>
       <c r="L70" s="1"/>
       <c r="M70" s="1"/>
-    </row>
-    <row r="71" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N70" s="1"/>
+    </row>
+    <row r="71" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A71" s="1"/>
       <c r="B71" s="1"/>
       <c r="C71" s="1"/>
@@ -3037,59 +3181,63 @@
       <c r="E71" s="1"/>
       <c r="F71" s="1"/>
       <c r="G71" s="1"/>
-      <c r="H71" s="4"/>
-      <c r="I71" s="1"/>
+      <c r="H71" s="1"/>
+      <c r="I71" s="4"/>
       <c r="J71" s="1"/>
-      <c r="K71" s="5"/>
-      <c r="L71" s="1"/>
-      <c r="M71" s="5"/>
-    </row>
-    <row r="72" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="K71" s="1"/>
+      <c r="L71" s="5"/>
+      <c r="M71" s="1"/>
+      <c r="N71" s="5"/>
+    </row>
+    <row r="72" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A72" s="1"/>
       <c r="B72" s="1"/>
       <c r="C72" s="1"/>
       <c r="D72" s="1"/>
       <c r="E72" s="1"/>
       <c r="F72" s="1"/>
-      <c r="G72" s="4"/>
+      <c r="G72" s="1"/>
       <c r="H72" s="4"/>
       <c r="I72" s="4"/>
-      <c r="J72" s="1"/>
-      <c r="K72" s="5"/>
-      <c r="L72" s="1"/>
-      <c r="M72" s="5"/>
-    </row>
-    <row r="73" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="J72" s="4"/>
+      <c r="K72" s="1"/>
+      <c r="L72" s="5"/>
+      <c r="M72" s="1"/>
+      <c r="N72" s="5"/>
+    </row>
+    <row r="73" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A73" s="1"/>
       <c r="B73" s="1"/>
       <c r="C73" s="1"/>
       <c r="D73" s="1"/>
       <c r="E73" s="1"/>
       <c r="F73" s="1"/>
-      <c r="G73" s="4"/>
+      <c r="G73" s="1"/>
       <c r="H73" s="4"/>
       <c r="I73" s="4"/>
-      <c r="J73" s="1"/>
+      <c r="J73" s="4"/>
       <c r="K73" s="1"/>
       <c r="L73" s="1"/>
       <c r="M73" s="1"/>
-    </row>
-    <row r="74" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N73" s="1"/>
+    </row>
+    <row r="74" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A74" s="1"/>
       <c r="B74" s="1"/>
       <c r="C74" s="1"/>
       <c r="D74" s="1"/>
       <c r="E74" s="1"/>
       <c r="F74" s="1"/>
-      <c r="G74" s="4"/>
+      <c r="G74" s="1"/>
       <c r="H74" s="4"/>
       <c r="I74" s="4"/>
-      <c r="J74" s="1"/>
-      <c r="K74" s="5"/>
-      <c r="L74" s="1"/>
+      <c r="J74" s="4"/>
+      <c r="K74" s="1"/>
+      <c r="L74" s="5"/>
       <c r="M74" s="1"/>
-    </row>
-    <row r="75" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N74" s="1"/>
+    </row>
+    <row r="75" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A75" s="1"/>
       <c r="B75" s="1"/>
       <c r="C75" s="1"/>
@@ -3097,14 +3245,15 @@
       <c r="E75" s="1"/>
       <c r="F75" s="1"/>
       <c r="G75" s="1"/>
-      <c r="H75" s="4"/>
+      <c r="H75" s="1"/>
       <c r="I75" s="4"/>
-      <c r="J75" s="1"/>
+      <c r="J75" s="4"/>
       <c r="K75" s="1"/>
       <c r="L75" s="1"/>
       <c r="M75" s="1"/>
-    </row>
-    <row r="76" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N75" s="1"/>
+    </row>
+    <row r="76" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A76" s="1"/>
       <c r="B76" s="1"/>
       <c r="C76" s="1"/>
@@ -3112,14 +3261,15 @@
       <c r="E76" s="1"/>
       <c r="F76" s="1"/>
       <c r="G76" s="1"/>
-      <c r="H76" s="4"/>
+      <c r="H76" s="1"/>
       <c r="I76" s="4"/>
-      <c r="J76" s="1"/>
-      <c r="K76" s="5"/>
-      <c r="L76" s="1"/>
+      <c r="J76" s="4"/>
+      <c r="K76" s="1"/>
+      <c r="L76" s="5"/>
       <c r="M76" s="1"/>
-    </row>
-    <row r="77" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N76" s="1"/>
+    </row>
+    <row r="77" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A77" s="1"/>
       <c r="B77" s="1"/>
       <c r="C77" s="1"/>
@@ -3127,14 +3277,15 @@
       <c r="E77" s="1"/>
       <c r="F77" s="1"/>
       <c r="G77" s="1"/>
-      <c r="H77" s="4"/>
-      <c r="I77" s="1"/>
+      <c r="H77" s="1"/>
+      <c r="I77" s="4"/>
       <c r="J77" s="1"/>
       <c r="K77" s="1"/>
       <c r="L77" s="1"/>
       <c r="M77" s="1"/>
-    </row>
-    <row r="78" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N77" s="1"/>
+    </row>
+    <row r="78" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A78" s="1"/>
       <c r="B78" s="1"/>
       <c r="C78" s="1"/>
@@ -3142,14 +3293,15 @@
       <c r="E78" s="1"/>
       <c r="F78" s="1"/>
       <c r="G78" s="1"/>
-      <c r="H78" s="4"/>
-      <c r="I78" s="1"/>
+      <c r="H78" s="1"/>
+      <c r="I78" s="4"/>
       <c r="J78" s="1"/>
       <c r="K78" s="1"/>
       <c r="L78" s="1"/>
       <c r="M78" s="1"/>
-    </row>
-    <row r="79" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N78" s="1"/>
+    </row>
+    <row r="79" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A79" s="1"/>
       <c r="B79" s="1"/>
       <c r="C79" s="1"/>
@@ -3157,29 +3309,31 @@
       <c r="E79" s="1"/>
       <c r="F79" s="1"/>
       <c r="G79" s="1"/>
-      <c r="H79" s="4"/>
-      <c r="I79" s="1"/>
+      <c r="H79" s="1"/>
+      <c r="I79" s="4"/>
       <c r="J79" s="1"/>
       <c r="K79" s="1"/>
       <c r="L79" s="1"/>
       <c r="M79" s="1"/>
-    </row>
-    <row r="80" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N79" s="1"/>
+    </row>
+    <row r="80" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A80" s="10"/>
       <c r="B80" s="10"/>
       <c r="C80" s="10"/>
       <c r="D80" s="10"/>
       <c r="E80" s="10"/>
       <c r="F80" s="10"/>
-      <c r="G80" s="1"/>
-      <c r="H80" s="4"/>
+      <c r="G80" s="10"/>
+      <c r="H80" s="1"/>
       <c r="I80" s="4"/>
-      <c r="J80" s="1"/>
+      <c r="J80" s="4"/>
       <c r="K80" s="1"/>
       <c r="L80" s="1"/>
-      <c r="M80" s="5"/>
-    </row>
-    <row r="81" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="M80" s="1"/>
+      <c r="N80" s="5"/>
+    </row>
+    <row r="81" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A81" s="1"/>
       <c r="B81" s="1"/>
       <c r="C81" s="1"/>
@@ -3187,59 +3341,63 @@
       <c r="E81" s="1"/>
       <c r="F81" s="1"/>
       <c r="G81" s="1"/>
-      <c r="H81" s="4"/>
+      <c r="H81" s="1"/>
       <c r="I81" s="4"/>
-      <c r="J81" s="1"/>
-      <c r="K81" s="5"/>
-      <c r="L81" s="1"/>
-      <c r="M81" s="5"/>
-    </row>
-    <row r="82" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="J81" s="4"/>
+      <c r="K81" s="1"/>
+      <c r="L81" s="5"/>
+      <c r="M81" s="1"/>
+      <c r="N81" s="5"/>
+    </row>
+    <row r="82" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A82" s="1"/>
       <c r="B82" s="1"/>
       <c r="C82" s="1"/>
       <c r="D82" s="1"/>
       <c r="E82" s="1"/>
       <c r="F82" s="1"/>
-      <c r="G82" s="4"/>
+      <c r="G82" s="1"/>
       <c r="H82" s="4"/>
-      <c r="I82" s="1"/>
+      <c r="I82" s="4"/>
       <c r="J82" s="1"/>
       <c r="K82" s="1"/>
       <c r="L82" s="1"/>
       <c r="M82" s="1"/>
-    </row>
-    <row r="83" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N82" s="1"/>
+    </row>
+    <row r="83" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A83" s="1"/>
       <c r="B83" s="1"/>
       <c r="C83" s="1"/>
       <c r="D83" s="1"/>
       <c r="E83" s="1"/>
       <c r="F83" s="1"/>
-      <c r="G83" s="4"/>
+      <c r="G83" s="1"/>
       <c r="H83" s="4"/>
-      <c r="I83" s="1"/>
+      <c r="I83" s="4"/>
       <c r="J83" s="1"/>
       <c r="K83" s="1"/>
       <c r="L83" s="1"/>
       <c r="M83" s="1"/>
-    </row>
-    <row r="84" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N83" s="1"/>
+    </row>
+    <row r="84" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A84" s="1"/>
       <c r="B84" s="1"/>
       <c r="C84" s="1"/>
       <c r="D84" s="1"/>
       <c r="E84" s="1"/>
       <c r="F84" s="1"/>
-      <c r="G84" s="4"/>
+      <c r="G84" s="1"/>
       <c r="H84" s="4"/>
-      <c r="I84" s="1"/>
+      <c r="I84" s="4"/>
       <c r="J84" s="1"/>
       <c r="K84" s="1"/>
       <c r="L84" s="1"/>
-      <c r="M84" s="5"/>
-    </row>
-    <row r="85" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="M84" s="1"/>
+      <c r="N84" s="5"/>
+    </row>
+    <row r="85" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A85" s="1"/>
       <c r="B85" s="1"/>
       <c r="C85" s="1"/>
@@ -3247,44 +3405,47 @@
       <c r="E85" s="1"/>
       <c r="F85" s="1"/>
       <c r="G85" s="1"/>
-      <c r="H85" s="4"/>
-      <c r="I85" s="1"/>
+      <c r="H85" s="1"/>
+      <c r="I85" s="4"/>
       <c r="J85" s="1"/>
-      <c r="K85" s="5"/>
-      <c r="L85" s="1"/>
-      <c r="M85" s="5"/>
-    </row>
-    <row r="86" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="K85" s="1"/>
+      <c r="L85" s="5"/>
+      <c r="M85" s="1"/>
+      <c r="N85" s="5"/>
+    </row>
+    <row r="86" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A86" s="1"/>
       <c r="B86" s="1"/>
       <c r="C86" s="1"/>
       <c r="D86" s="1"/>
       <c r="E86" s="1"/>
       <c r="F86" s="1"/>
-      <c r="G86" s="4"/>
+      <c r="G86" s="1"/>
       <c r="H86" s="4"/>
       <c r="I86" s="4"/>
-      <c r="J86" s="1"/>
+      <c r="J86" s="4"/>
       <c r="K86" s="1"/>
       <c r="L86" s="1"/>
-      <c r="M86" s="5"/>
-    </row>
-    <row r="87" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="M86" s="1"/>
+      <c r="N86" s="5"/>
+    </row>
+    <row r="87" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A87" s="1"/>
       <c r="B87" s="1"/>
       <c r="C87" s="1"/>
       <c r="D87" s="1"/>
       <c r="E87" s="1"/>
       <c r="F87" s="1"/>
-      <c r="G87" s="4"/>
+      <c r="G87" s="1"/>
       <c r="H87" s="4"/>
-      <c r="I87" s="1"/>
+      <c r="I87" s="4"/>
       <c r="J87" s="1"/>
-      <c r="K87" s="5"/>
-      <c r="L87" s="1"/>
+      <c r="K87" s="1"/>
+      <c r="L87" s="5"/>
       <c r="M87" s="1"/>
-    </row>
-    <row r="88" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N87" s="1"/>
+    </row>
+    <row r="88" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A88" s="1"/>
       <c r="B88" s="1"/>
       <c r="C88" s="1"/>
@@ -3295,41 +3456,44 @@
       <c r="H88" s="1"/>
       <c r="I88" s="1"/>
       <c r="J88" s="1"/>
-      <c r="K88" s="5"/>
-      <c r="L88" s="1"/>
+      <c r="K88" s="1"/>
+      <c r="L88" s="5"/>
       <c r="M88" s="1"/>
-    </row>
-    <row r="89" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N88" s="1"/>
+    </row>
+    <row r="89" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A89" s="1"/>
       <c r="B89" s="1"/>
       <c r="C89" s="1"/>
       <c r="D89" s="1"/>
       <c r="E89" s="1"/>
       <c r="F89" s="1"/>
-      <c r="G89" s="4"/>
+      <c r="G89" s="1"/>
       <c r="H89" s="4"/>
-      <c r="I89" s="1"/>
+      <c r="I89" s="4"/>
       <c r="J89" s="1"/>
-      <c r="K89" s="5"/>
-      <c r="L89" s="1"/>
+      <c r="K89" s="1"/>
+      <c r="L89" s="5"/>
       <c r="M89" s="1"/>
-    </row>
-    <row r="90" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N89" s="1"/>
+    </row>
+    <row r="90" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A90" s="1"/>
       <c r="B90" s="1"/>
       <c r="C90" s="1"/>
       <c r="D90" s="1"/>
       <c r="E90" s="1"/>
       <c r="F90" s="1"/>
-      <c r="G90" s="4"/>
+      <c r="G90" s="1"/>
       <c r="H90" s="4"/>
       <c r="I90" s="4"/>
-      <c r="J90" s="1"/>
-      <c r="K90" s="5"/>
-      <c r="L90" s="1"/>
+      <c r="J90" s="4"/>
+      <c r="K90" s="1"/>
+      <c r="L90" s="5"/>
       <c r="M90" s="1"/>
-    </row>
-    <row r="91" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N90" s="1"/>
+    </row>
+    <row r="91" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A91" s="1"/>
       <c r="B91" s="1"/>
       <c r="C91" s="1"/>
@@ -3337,14 +3501,15 @@
       <c r="E91" s="1"/>
       <c r="F91" s="1"/>
       <c r="G91" s="1"/>
-      <c r="H91" s="4"/>
-      <c r="I91" s="1"/>
+      <c r="H91" s="1"/>
+      <c r="I91" s="4"/>
       <c r="J91" s="1"/>
       <c r="K91" s="1"/>
       <c r="L91" s="1"/>
       <c r="M91" s="1"/>
-    </row>
-    <row r="92" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N91" s="1"/>
+    </row>
+    <row r="92" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A92" s="1"/>
       <c r="B92" s="1"/>
       <c r="C92" s="1"/>
@@ -3352,29 +3517,31 @@
       <c r="E92" s="1"/>
       <c r="F92" s="1"/>
       <c r="G92" s="1"/>
-      <c r="H92" s="4"/>
-      <c r="I92" s="1"/>
+      <c r="H92" s="1"/>
+      <c r="I92" s="4"/>
       <c r="J92" s="1"/>
       <c r="K92" s="1"/>
       <c r="L92" s="1"/>
       <c r="M92" s="1"/>
-    </row>
-    <row r="93" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N92" s="1"/>
+    </row>
+    <row r="93" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A93" s="1"/>
       <c r="B93" s="1"/>
       <c r="C93" s="1"/>
       <c r="D93" s="1"/>
       <c r="E93" s="1"/>
       <c r="F93" s="1"/>
-      <c r="G93" s="4"/>
+      <c r="G93" s="1"/>
       <c r="H93" s="4"/>
       <c r="I93" s="4"/>
-      <c r="J93" s="1"/>
+      <c r="J93" s="4"/>
       <c r="K93" s="1"/>
       <c r="L93" s="1"/>
-      <c r="M93" s="5"/>
-    </row>
-    <row r="94" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="M93" s="1"/>
+      <c r="N93" s="5"/>
+    </row>
+    <row r="94" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A94" s="1"/>
       <c r="B94" s="1"/>
       <c r="C94" s="1"/>
@@ -3382,14 +3549,15 @@
       <c r="E94" s="1"/>
       <c r="F94" s="1"/>
       <c r="G94" s="1"/>
-      <c r="H94" s="4"/>
+      <c r="H94" s="1"/>
       <c r="I94" s="4"/>
-      <c r="J94" s="1"/>
+      <c r="J94" s="4"/>
       <c r="K94" s="1"/>
       <c r="L94" s="1"/>
-      <c r="M94" s="5"/>
-    </row>
-    <row r="95" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="M94" s="1"/>
+      <c r="N94" s="5"/>
+    </row>
+    <row r="95" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A95" s="1"/>
       <c r="B95" s="1"/>
       <c r="C95" s="1"/>
@@ -3397,14 +3565,15 @@
       <c r="E95" s="1"/>
       <c r="F95" s="1"/>
       <c r="G95" s="1"/>
-      <c r="H95" s="4"/>
+      <c r="H95" s="1"/>
       <c r="I95" s="4"/>
-      <c r="J95" s="1"/>
+      <c r="J95" s="4"/>
       <c r="K95" s="1"/>
-      <c r="L95" s="4"/>
-      <c r="M95" s="1"/>
-    </row>
-    <row r="96" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="L95" s="1"/>
+      <c r="M95" s="4"/>
+      <c r="N95" s="1"/>
+    </row>
+    <row r="96" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A96" s="1"/>
       <c r="B96" s="1"/>
       <c r="C96" s="1"/>
@@ -3412,14 +3581,15 @@
       <c r="E96" s="1"/>
       <c r="F96" s="1"/>
       <c r="G96" s="1"/>
-      <c r="H96" s="4"/>
+      <c r="H96" s="1"/>
       <c r="I96" s="4"/>
-      <c r="J96" s="1"/>
-      <c r="K96" s="5"/>
-      <c r="L96" s="1"/>
+      <c r="J96" s="4"/>
+      <c r="K96" s="1"/>
+      <c r="L96" s="5"/>
       <c r="M96" s="1"/>
-    </row>
-    <row r="97" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N96" s="1"/>
+    </row>
+    <row r="97" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A97" s="1"/>
       <c r="B97" s="1"/>
       <c r="C97" s="1"/>
@@ -3427,14 +3597,15 @@
       <c r="E97" s="1"/>
       <c r="F97" s="1"/>
       <c r="G97" s="1"/>
-      <c r="H97" s="4"/>
+      <c r="H97" s="1"/>
       <c r="I97" s="4"/>
-      <c r="J97" s="1"/>
-      <c r="K97" s="5"/>
-      <c r="L97" s="1"/>
+      <c r="J97" s="4"/>
+      <c r="K97" s="1"/>
+      <c r="L97" s="5"/>
       <c r="M97" s="1"/>
-    </row>
-    <row r="98" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N97" s="1"/>
+    </row>
+    <row r="98" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A98" s="1"/>
       <c r="B98" s="1"/>
       <c r="C98" s="1"/>
@@ -3442,14 +3613,15 @@
       <c r="E98" s="1"/>
       <c r="F98" s="1"/>
       <c r="G98" s="1"/>
-      <c r="H98" s="4"/>
+      <c r="H98" s="1"/>
       <c r="I98" s="4"/>
       <c r="J98" s="4"/>
-      <c r="K98" s="1"/>
-      <c r="L98" s="4"/>
-      <c r="M98" s="1"/>
-    </row>
-    <row r="99" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="K98" s="4"/>
+      <c r="L98" s="1"/>
+      <c r="M98" s="4"/>
+      <c r="N98" s="1"/>
+    </row>
+    <row r="99" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A99" s="1"/>
       <c r="B99" s="1"/>
       <c r="C99" s="1"/>
@@ -3457,14 +3629,15 @@
       <c r="E99" s="1"/>
       <c r="F99" s="1"/>
       <c r="G99" s="1"/>
-      <c r="H99" s="4"/>
+      <c r="H99" s="1"/>
       <c r="I99" s="4"/>
-      <c r="J99" s="1"/>
+      <c r="J99" s="4"/>
       <c r="K99" s="1"/>
       <c r="L99" s="1"/>
       <c r="M99" s="1"/>
-    </row>
-    <row r="100" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N99" s="1"/>
+    </row>
+    <row r="100" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A100" s="1"/>
       <c r="B100" s="1"/>
       <c r="C100" s="1"/>
@@ -3472,29 +3645,31 @@
       <c r="E100" s="1"/>
       <c r="F100" s="1"/>
       <c r="G100" s="1"/>
-      <c r="H100" s="4"/>
-      <c r="I100" s="1"/>
+      <c r="H100" s="1"/>
+      <c r="I100" s="4"/>
       <c r="J100" s="1"/>
       <c r="K100" s="1"/>
       <c r="L100" s="1"/>
       <c r="M100" s="1"/>
-    </row>
-    <row r="101" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N100" s="1"/>
+    </row>
+    <row r="101" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A101" s="1"/>
       <c r="B101" s="1"/>
       <c r="C101" s="1"/>
       <c r="D101" s="1"/>
       <c r="E101" s="1"/>
       <c r="F101" s="1"/>
-      <c r="G101" s="4"/>
+      <c r="G101" s="1"/>
       <c r="H101" s="4"/>
       <c r="I101" s="4"/>
-      <c r="J101" s="1"/>
-      <c r="K101" s="5"/>
-      <c r="L101" s="1"/>
+      <c r="J101" s="4"/>
+      <c r="K101" s="1"/>
+      <c r="L101" s="5"/>
       <c r="M101" s="1"/>
-    </row>
-    <row r="102" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N101" s="1"/>
+    </row>
+    <row r="102" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A102" s="1"/>
       <c r="B102" s="1"/>
       <c r="C102" s="1"/>
@@ -3508,23 +3683,25 @@
       <c r="K102" s="1"/>
       <c r="L102" s="1"/>
       <c r="M102" s="1"/>
-    </row>
-    <row r="103" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N102" s="1"/>
+    </row>
+    <row r="103" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A103" s="1"/>
       <c r="B103" s="1"/>
       <c r="C103" s="1"/>
       <c r="D103" s="1"/>
       <c r="E103" s="1"/>
       <c r="F103" s="1"/>
-      <c r="G103" s="4"/>
+      <c r="G103" s="1"/>
       <c r="H103" s="4"/>
       <c r="I103" s="4"/>
-      <c r="J103" s="1"/>
+      <c r="J103" s="4"/>
       <c r="K103" s="1"/>
       <c r="L103" s="1"/>
       <c r="M103" s="1"/>
-    </row>
-    <row r="104" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N103" s="1"/>
+    </row>
+    <row r="104" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A104" s="1"/>
       <c r="B104" s="1"/>
       <c r="C104" s="1"/>
@@ -3532,59 +3709,63 @@
       <c r="E104" s="1"/>
       <c r="F104" s="1"/>
       <c r="G104" s="1"/>
-      <c r="H104" s="4"/>
-      <c r="I104" s="1"/>
+      <c r="H104" s="1"/>
+      <c r="I104" s="4"/>
       <c r="J104" s="1"/>
       <c r="K104" s="1"/>
-      <c r="L104" s="6"/>
-      <c r="M104" s="5"/>
-    </row>
-    <row r="105" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="L104" s="1"/>
+      <c r="M104" s="6"/>
+      <c r="N104" s="5"/>
+    </row>
+    <row r="105" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A105" s="1"/>
       <c r="B105" s="1"/>
       <c r="C105" s="1"/>
       <c r="D105" s="1"/>
       <c r="E105" s="1"/>
       <c r="F105" s="1"/>
-      <c r="G105" s="4"/>
+      <c r="G105" s="1"/>
       <c r="H105" s="4"/>
-      <c r="I105" s="1"/>
+      <c r="I105" s="4"/>
       <c r="J105" s="1"/>
       <c r="K105" s="1"/>
       <c r="L105" s="1"/>
-      <c r="M105" s="5"/>
-    </row>
-    <row r="106" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="M105" s="1"/>
+      <c r="N105" s="5"/>
+    </row>
+    <row r="106" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A106" s="1"/>
       <c r="B106" s="1"/>
       <c r="C106" s="1"/>
       <c r="D106" s="1"/>
       <c r="E106" s="1"/>
       <c r="F106" s="1"/>
-      <c r="G106" s="4"/>
+      <c r="G106" s="1"/>
       <c r="H106" s="4"/>
       <c r="I106" s="4"/>
-      <c r="J106" s="1"/>
+      <c r="J106" s="4"/>
       <c r="K106" s="1"/>
       <c r="L106" s="1"/>
       <c r="M106" s="1"/>
-    </row>
-    <row r="107" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N106" s="1"/>
+    </row>
+    <row r="107" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A107" s="1"/>
       <c r="B107" s="1"/>
       <c r="C107" s="1"/>
       <c r="D107" s="1"/>
       <c r="E107" s="1"/>
       <c r="F107" s="1"/>
-      <c r="G107" s="4"/>
+      <c r="G107" s="1"/>
       <c r="H107" s="4"/>
-      <c r="I107" s="1"/>
-      <c r="J107" s="4"/>
-      <c r="K107" s="5"/>
-      <c r="L107" s="1"/>
+      <c r="I107" s="4"/>
+      <c r="J107" s="1"/>
+      <c r="K107" s="4"/>
+      <c r="L107" s="5"/>
       <c r="M107" s="1"/>
-    </row>
-    <row r="108" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N107" s="1"/>
+    </row>
+    <row r="108" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A108" s="1"/>
       <c r="B108" s="1"/>
       <c r="C108" s="1"/>
@@ -3592,14 +3773,15 @@
       <c r="E108" s="1"/>
       <c r="F108" s="1"/>
       <c r="G108" s="1"/>
-      <c r="H108" s="4"/>
-      <c r="I108" s="1"/>
+      <c r="H108" s="1"/>
+      <c r="I108" s="4"/>
       <c r="J108" s="1"/>
-      <c r="K108" s="5"/>
-      <c r="L108" s="1"/>
+      <c r="K108" s="1"/>
+      <c r="L108" s="5"/>
       <c r="M108" s="1"/>
-    </row>
-    <row r="109" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N108" s="1"/>
+    </row>
+    <row r="109" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A109" s="1"/>
       <c r="B109" s="1"/>
       <c r="C109" s="1"/>
@@ -3607,14 +3789,15 @@
       <c r="E109" s="1"/>
       <c r="F109" s="1"/>
       <c r="G109" s="1"/>
-      <c r="H109" s="4"/>
-      <c r="I109" s="1"/>
+      <c r="H109" s="1"/>
+      <c r="I109" s="4"/>
       <c r="J109" s="1"/>
-      <c r="K109" s="5"/>
-      <c r="L109" s="1"/>
-      <c r="M109" s="5"/>
-    </row>
-    <row r="110" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="K109" s="1"/>
+      <c r="L109" s="5"/>
+      <c r="M109" s="1"/>
+      <c r="N109" s="5"/>
+    </row>
+    <row r="110" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A110" s="1"/>
       <c r="B110" s="1"/>
       <c r="C110" s="1"/>
@@ -3622,14 +3805,15 @@
       <c r="E110" s="1"/>
       <c r="F110" s="1"/>
       <c r="G110" s="1"/>
-      <c r="H110" s="4"/>
-      <c r="I110" s="5"/>
-      <c r="J110" s="6"/>
-      <c r="K110" s="5"/>
-      <c r="L110" s="6"/>
-      <c r="M110" s="5"/>
-    </row>
-    <row r="111" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="H110" s="1"/>
+      <c r="I110" s="4"/>
+      <c r="J110" s="5"/>
+      <c r="K110" s="6"/>
+      <c r="L110" s="5"/>
+      <c r="M110" s="6"/>
+      <c r="N110" s="5"/>
+    </row>
+    <row r="111" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A111" s="1"/>
       <c r="B111" s="1"/>
       <c r="C111" s="1"/>
@@ -3637,14 +3821,15 @@
       <c r="E111" s="1"/>
       <c r="F111" s="1"/>
       <c r="G111" s="1"/>
-      <c r="H111" s="4"/>
-      <c r="I111" s="1"/>
+      <c r="H111" s="1"/>
+      <c r="I111" s="4"/>
       <c r="J111" s="1"/>
       <c r="K111" s="1"/>
       <c r="L111" s="1"/>
-      <c r="M111" s="5"/>
-    </row>
-    <row r="112" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="M111" s="1"/>
+      <c r="N111" s="5"/>
+    </row>
+    <row r="112" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A112" s="1"/>
       <c r="B112" s="1"/>
       <c r="C112" s="1"/>
@@ -3652,59 +3837,63 @@
       <c r="E112" s="1"/>
       <c r="F112" s="1"/>
       <c r="G112" s="1"/>
-      <c r="H112" s="4"/>
+      <c r="H112" s="1"/>
       <c r="I112" s="4"/>
-      <c r="J112" s="1"/>
+      <c r="J112" s="4"/>
       <c r="K112" s="1"/>
       <c r="L112" s="1"/>
-      <c r="M112" s="5"/>
-    </row>
-    <row r="113" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="M112" s="1"/>
+      <c r="N112" s="5"/>
+    </row>
+    <row r="113" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A113" s="1"/>
       <c r="B113" s="1"/>
       <c r="C113" s="1"/>
       <c r="D113" s="1"/>
       <c r="E113" s="1"/>
       <c r="F113" s="1"/>
-      <c r="G113" s="4"/>
+      <c r="G113" s="1"/>
       <c r="H113" s="4"/>
       <c r="I113" s="4"/>
-      <c r="J113" s="1"/>
-      <c r="K113" s="5"/>
-      <c r="L113" s="1"/>
-      <c r="M113" s="5"/>
-    </row>
-    <row r="114" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="J113" s="4"/>
+      <c r="K113" s="1"/>
+      <c r="L113" s="5"/>
+      <c r="M113" s="1"/>
+      <c r="N113" s="5"/>
+    </row>
+    <row r="114" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A114" s="1"/>
       <c r="B114" s="1"/>
       <c r="C114" s="1"/>
       <c r="D114" s="1"/>
       <c r="E114" s="1"/>
       <c r="F114" s="1"/>
-      <c r="G114" s="4"/>
+      <c r="G114" s="1"/>
       <c r="H114" s="4"/>
-      <c r="I114" s="5"/>
-      <c r="J114" s="1"/>
-      <c r="K114" s="5"/>
-      <c r="L114" s="1"/>
+      <c r="I114" s="4"/>
+      <c r="J114" s="5"/>
+      <c r="K114" s="1"/>
+      <c r="L114" s="5"/>
       <c r="M114" s="1"/>
-    </row>
-    <row r="115" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N114" s="1"/>
+    </row>
+    <row r="115" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A115" s="1"/>
       <c r="B115" s="1"/>
       <c r="C115" s="1"/>
       <c r="D115" s="1"/>
       <c r="E115" s="1"/>
       <c r="F115" s="1"/>
-      <c r="G115" s="4"/>
+      <c r="G115" s="1"/>
       <c r="H115" s="4"/>
-      <c r="I115" s="1"/>
+      <c r="I115" s="4"/>
       <c r="J115" s="1"/>
-      <c r="K115" s="5"/>
-      <c r="L115" s="1"/>
+      <c r="K115" s="1"/>
+      <c r="L115" s="5"/>
       <c r="M115" s="1"/>
-    </row>
-    <row r="116" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N115" s="1"/>
+    </row>
+    <row r="116" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A116" s="1"/>
       <c r="B116" s="1"/>
       <c r="C116" s="1"/>
@@ -3713,13 +3902,14 @@
       <c r="F116" s="1"/>
       <c r="G116" s="1"/>
       <c r="H116" s="1"/>
-      <c r="I116" s="4"/>
-      <c r="J116" s="1"/>
-      <c r="K116" s="5"/>
-      <c r="L116" s="1"/>
-      <c r="M116" s="5"/>
-    </row>
-    <row r="117" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="I116" s="1"/>
+      <c r="J116" s="4"/>
+      <c r="K116" s="1"/>
+      <c r="L116" s="5"/>
+      <c r="M116" s="1"/>
+      <c r="N116" s="5"/>
+    </row>
+    <row r="117" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A117" s="1"/>
       <c r="B117" s="1"/>
       <c r="C117" s="1"/>
@@ -3727,14 +3917,15 @@
       <c r="E117" s="1"/>
       <c r="F117" s="1"/>
       <c r="G117" s="1"/>
-      <c r="H117" s="4"/>
-      <c r="I117" s="1"/>
+      <c r="H117" s="1"/>
+      <c r="I117" s="4"/>
       <c r="J117" s="1"/>
-      <c r="K117" s="5"/>
-      <c r="L117" s="1"/>
+      <c r="K117" s="1"/>
+      <c r="L117" s="5"/>
       <c r="M117" s="1"/>
-    </row>
-    <row r="118" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N117" s="1"/>
+    </row>
+    <row r="118" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A118" s="1"/>
       <c r="B118" s="1"/>
       <c r="C118" s="1"/>
@@ -3742,14 +3933,15 @@
       <c r="E118" s="1"/>
       <c r="F118" s="1"/>
       <c r="G118" s="1"/>
-      <c r="H118" s="4"/>
-      <c r="I118" s="1"/>
+      <c r="H118" s="1"/>
+      <c r="I118" s="4"/>
       <c r="J118" s="1"/>
       <c r="K118" s="1"/>
       <c r="L118" s="1"/>
       <c r="M118" s="1"/>
-    </row>
-    <row r="119" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N118" s="1"/>
+    </row>
+    <row r="119" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A119" s="1"/>
       <c r="B119" s="1"/>
       <c r="C119" s="1"/>
@@ -3757,14 +3949,15 @@
       <c r="E119" s="1"/>
       <c r="F119" s="1"/>
       <c r="G119" s="1"/>
-      <c r="H119" s="4"/>
-      <c r="I119" s="1"/>
+      <c r="H119" s="1"/>
+      <c r="I119" s="4"/>
       <c r="J119" s="1"/>
       <c r="K119" s="1"/>
       <c r="L119" s="1"/>
       <c r="M119" s="1"/>
-    </row>
-    <row r="120" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N119" s="1"/>
+    </row>
+    <row r="120" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A120" s="1"/>
       <c r="B120" s="1"/>
       <c r="C120" s="1"/>
@@ -3772,14 +3965,15 @@
       <c r="E120" s="1"/>
       <c r="F120" s="1"/>
       <c r="G120" s="1"/>
-      <c r="H120" s="4"/>
+      <c r="H120" s="1"/>
       <c r="I120" s="4"/>
-      <c r="J120" s="1"/>
-      <c r="K120" s="5"/>
-      <c r="L120" s="1"/>
-      <c r="M120" s="5"/>
-    </row>
-    <row r="121" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="J120" s="4"/>
+      <c r="K120" s="1"/>
+      <c r="L120" s="5"/>
+      <c r="M120" s="1"/>
+      <c r="N120" s="5"/>
+    </row>
+    <row r="121" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A121" s="1"/>
       <c r="B121" s="1"/>
       <c r="C121" s="1"/>
@@ -3787,29 +3981,31 @@
       <c r="E121" s="1"/>
       <c r="F121" s="1"/>
       <c r="G121" s="1"/>
-      <c r="H121" s="4"/>
+      <c r="H121" s="1"/>
       <c r="I121" s="4"/>
-      <c r="J121" s="1"/>
+      <c r="J121" s="4"/>
       <c r="K121" s="1"/>
       <c r="L121" s="1"/>
       <c r="M121" s="1"/>
-    </row>
-    <row r="122" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N121" s="1"/>
+    </row>
+    <row r="122" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A122" s="12"/>
       <c r="B122" s="12"/>
       <c r="C122" s="12"/>
       <c r="D122" s="12"/>
       <c r="E122" s="12"/>
       <c r="F122" s="12"/>
-      <c r="G122" s="4"/>
+      <c r="G122" s="12"/>
       <c r="H122" s="4"/>
       <c r="I122" s="4"/>
-      <c r="J122" s="1"/>
+      <c r="J122" s="4"/>
       <c r="K122" s="1"/>
       <c r="L122" s="1"/>
       <c r="M122" s="1"/>
-    </row>
-    <row r="123" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N122" s="1"/>
+    </row>
+    <row r="123" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A123" s="1"/>
       <c r="B123" s="1"/>
       <c r="C123" s="1"/>
@@ -3817,14 +4013,15 @@
       <c r="E123" s="1"/>
       <c r="F123" s="1"/>
       <c r="G123" s="1"/>
-      <c r="H123" s="4"/>
-      <c r="I123" s="1"/>
+      <c r="H123" s="1"/>
+      <c r="I123" s="4"/>
       <c r="J123" s="1"/>
       <c r="K123" s="1"/>
       <c r="L123" s="1"/>
       <c r="M123" s="1"/>
-    </row>
-    <row r="124" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N123" s="1"/>
+    </row>
+    <row r="124" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A124" s="1"/>
       <c r="B124" s="1"/>
       <c r="C124" s="1"/>
@@ -3832,14 +4029,15 @@
       <c r="E124" s="1"/>
       <c r="F124" s="1"/>
       <c r="G124" s="1"/>
-      <c r="H124" s="4"/>
-      <c r="I124" s="1"/>
+      <c r="H124" s="1"/>
+      <c r="I124" s="4"/>
       <c r="J124" s="1"/>
       <c r="K124" s="1"/>
       <c r="L124" s="1"/>
-      <c r="M124" s="5"/>
-    </row>
-    <row r="125" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="M124" s="1"/>
+      <c r="N124" s="5"/>
+    </row>
+    <row r="125" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A125" s="1"/>
       <c r="B125" s="1"/>
       <c r="C125" s="1"/>
@@ -3847,14 +4045,15 @@
       <c r="E125" s="1"/>
       <c r="F125" s="1"/>
       <c r="G125" s="1"/>
-      <c r="H125" s="4"/>
+      <c r="H125" s="1"/>
       <c r="I125" s="4"/>
-      <c r="J125" s="1"/>
+      <c r="J125" s="4"/>
       <c r="K125" s="1"/>
       <c r="L125" s="1"/>
       <c r="M125" s="1"/>
-    </row>
-    <row r="126" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N125" s="1"/>
+    </row>
+    <row r="126" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A126" s="1"/>
       <c r="B126" s="1"/>
       <c r="C126" s="1"/>
@@ -3862,14 +4061,15 @@
       <c r="E126" s="1"/>
       <c r="F126" s="1"/>
       <c r="G126" s="1"/>
-      <c r="H126" s="4"/>
-      <c r="I126" s="1"/>
+      <c r="H126" s="1"/>
+      <c r="I126" s="4"/>
       <c r="J126" s="1"/>
       <c r="K126" s="1"/>
       <c r="L126" s="1"/>
       <c r="M126" s="1"/>
-    </row>
-    <row r="127" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N126" s="1"/>
+    </row>
+    <row r="127" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A127" s="1"/>
       <c r="B127" s="1"/>
       <c r="C127" s="1"/>
@@ -3877,14 +4077,15 @@
       <c r="E127" s="1"/>
       <c r="F127" s="1"/>
       <c r="G127" s="1"/>
-      <c r="H127" s="4"/>
-      <c r="I127" s="1"/>
+      <c r="H127" s="1"/>
+      <c r="I127" s="4"/>
       <c r="J127" s="1"/>
       <c r="K127" s="1"/>
       <c r="L127" s="1"/>
       <c r="M127" s="1"/>
-    </row>
-    <row r="128" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N127" s="1"/>
+    </row>
+    <row r="128" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A128" s="1"/>
       <c r="B128" s="1"/>
       <c r="C128" s="1"/>
@@ -3892,14 +4093,15 @@
       <c r="E128" s="1"/>
       <c r="F128" s="1"/>
       <c r="G128" s="1"/>
-      <c r="H128" s="4"/>
+      <c r="H128" s="1"/>
       <c r="I128" s="4"/>
-      <c r="J128" s="1"/>
+      <c r="J128" s="4"/>
       <c r="K128" s="1"/>
       <c r="L128" s="1"/>
-      <c r="M128" s="5"/>
-    </row>
-    <row r="129" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="M128" s="1"/>
+      <c r="N128" s="5"/>
+    </row>
+    <row r="129" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A129" s="1"/>
       <c r="B129" s="1"/>
       <c r="C129" s="1"/>
@@ -3910,11 +4112,12 @@
       <c r="H129" s="1"/>
       <c r="I129" s="1"/>
       <c r="J129" s="1"/>
-      <c r="K129" s="5"/>
-      <c r="L129" s="1"/>
+      <c r="K129" s="1"/>
+      <c r="L129" s="5"/>
       <c r="M129" s="1"/>
-    </row>
-    <row r="130" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N129" s="1"/>
+    </row>
+    <row r="130" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A130" s="1"/>
       <c r="B130" s="1"/>
       <c r="C130" s="1"/>
@@ -3922,14 +4125,15 @@
       <c r="E130" s="1"/>
       <c r="F130" s="1"/>
       <c r="G130" s="1"/>
-      <c r="H130" s="4"/>
+      <c r="H130" s="1"/>
       <c r="I130" s="4"/>
-      <c r="J130" s="1"/>
+      <c r="J130" s="4"/>
       <c r="K130" s="1"/>
       <c r="L130" s="1"/>
       <c r="M130" s="1"/>
-    </row>
-    <row r="131" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N130" s="1"/>
+    </row>
+    <row r="131" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A131" s="1"/>
       <c r="B131" s="1"/>
       <c r="C131" s="1"/>
@@ -3937,44 +4141,47 @@
       <c r="E131" s="1"/>
       <c r="F131" s="1"/>
       <c r="G131" s="1"/>
-      <c r="H131" s="4"/>
+      <c r="H131" s="1"/>
       <c r="I131" s="4"/>
       <c r="J131" s="4"/>
-      <c r="K131" s="5"/>
-      <c r="L131" s="4"/>
-      <c r="M131" s="5"/>
-    </row>
-    <row r="132" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="K131" s="4"/>
+      <c r="L131" s="5"/>
+      <c r="M131" s="4"/>
+      <c r="N131" s="5"/>
+    </row>
+    <row r="132" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A132" s="1"/>
       <c r="B132" s="1"/>
       <c r="C132" s="1"/>
       <c r="D132" s="1"/>
       <c r="E132" s="1"/>
       <c r="F132" s="1"/>
-      <c r="G132" s="4"/>
+      <c r="G132" s="1"/>
       <c r="H132" s="4"/>
       <c r="I132" s="4"/>
-      <c r="J132" s="1"/>
+      <c r="J132" s="4"/>
       <c r="K132" s="1"/>
       <c r="L132" s="1"/>
       <c r="M132" s="1"/>
-    </row>
-    <row r="133" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N132" s="1"/>
+    </row>
+    <row r="133" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A133" s="1"/>
       <c r="B133" s="1"/>
       <c r="C133" s="1"/>
       <c r="D133" s="1"/>
       <c r="E133" s="1"/>
       <c r="F133" s="1"/>
-      <c r="G133" s="4"/>
+      <c r="G133" s="1"/>
       <c r="H133" s="4"/>
       <c r="I133" s="4"/>
-      <c r="J133" s="1"/>
-      <c r="K133" s="5"/>
-      <c r="L133" s="1"/>
+      <c r="J133" s="4"/>
+      <c r="K133" s="1"/>
+      <c r="L133" s="5"/>
       <c r="M133" s="1"/>
-    </row>
-    <row r="134" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N133" s="1"/>
+    </row>
+    <row r="134" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A134" s="12"/>
       <c r="B134" s="12"/>
       <c r="C134" s="12"/>
@@ -3982,14 +4189,15 @@
       <c r="E134" s="12"/>
       <c r="F134" s="12"/>
       <c r="G134" s="12"/>
-      <c r="H134" s="1"/>
-      <c r="I134" s="4"/>
-      <c r="J134" s="1"/>
+      <c r="H134" s="12"/>
+      <c r="I134" s="1"/>
+      <c r="J134" s="4"/>
       <c r="K134" s="1"/>
       <c r="L134" s="1"/>
       <c r="M134" s="1"/>
-    </row>
-    <row r="135" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N134" s="1"/>
+    </row>
+    <row r="135" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A135" s="1"/>
       <c r="B135" s="1"/>
       <c r="C135" s="1"/>
@@ -3997,14 +4205,15 @@
       <c r="E135" s="1"/>
       <c r="F135" s="1"/>
       <c r="G135" s="1"/>
-      <c r="H135" s="4"/>
-      <c r="I135" s="1"/>
+      <c r="H135" s="1"/>
+      <c r="I135" s="4"/>
       <c r="J135" s="1"/>
       <c r="K135" s="1"/>
       <c r="L135" s="1"/>
       <c r="M135" s="1"/>
-    </row>
-    <row r="136" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N135" s="1"/>
+    </row>
+    <row r="136" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A136" s="1"/>
       <c r="B136" s="1"/>
       <c r="C136" s="1"/>
@@ -4012,44 +4221,47 @@
       <c r="E136" s="1"/>
       <c r="F136" s="1"/>
       <c r="G136" s="1"/>
-      <c r="H136" s="4"/>
+      <c r="H136" s="1"/>
       <c r="I136" s="4"/>
-      <c r="J136" s="1"/>
+      <c r="J136" s="4"/>
       <c r="K136" s="1"/>
       <c r="L136" s="1"/>
       <c r="M136" s="1"/>
-    </row>
-    <row r="137" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N136" s="1"/>
+    </row>
+    <row r="137" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A137" s="1"/>
       <c r="B137" s="1"/>
       <c r="C137" s="1"/>
       <c r="D137" s="1"/>
       <c r="E137" s="1"/>
       <c r="F137" s="1"/>
-      <c r="G137" s="4"/>
+      <c r="G137" s="1"/>
       <c r="H137" s="4"/>
       <c r="I137" s="4"/>
-      <c r="J137" s="1"/>
-      <c r="K137" s="5"/>
-      <c r="L137" s="1"/>
+      <c r="J137" s="4"/>
+      <c r="K137" s="1"/>
+      <c r="L137" s="5"/>
       <c r="M137" s="1"/>
-    </row>
-    <row r="138" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N137" s="1"/>
+    </row>
+    <row r="138" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A138" s="12"/>
       <c r="B138" s="12"/>
       <c r="C138" s="12"/>
       <c r="D138" s="12"/>
       <c r="E138" s="12"/>
       <c r="F138" s="12"/>
-      <c r="G138" s="4"/>
+      <c r="G138" s="12"/>
       <c r="H138" s="4"/>
       <c r="I138" s="4"/>
       <c r="J138" s="4"/>
       <c r="K138" s="4"/>
-      <c r="L138" s="1"/>
+      <c r="L138" s="4"/>
       <c r="M138" s="1"/>
-    </row>
-    <row r="139" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N138" s="1"/>
+    </row>
+    <row r="139" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A139" s="1"/>
       <c r="B139" s="1"/>
       <c r="C139" s="1"/>
@@ -4057,29 +4269,31 @@
       <c r="E139" s="1"/>
       <c r="F139" s="1"/>
       <c r="G139" s="1"/>
-      <c r="H139" s="4"/>
+      <c r="H139" s="1"/>
       <c r="I139" s="4"/>
       <c r="J139" s="4"/>
-      <c r="K139" s="5"/>
-      <c r="L139" s="1"/>
+      <c r="K139" s="4"/>
+      <c r="L139" s="5"/>
       <c r="M139" s="1"/>
-    </row>
-    <row r="140" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N139" s="1"/>
+    </row>
+    <row r="140" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A140" s="1"/>
       <c r="B140" s="1"/>
       <c r="C140" s="1"/>
       <c r="D140" s="1"/>
       <c r="E140" s="1"/>
       <c r="F140" s="1"/>
-      <c r="G140" s="4"/>
+      <c r="G140" s="1"/>
       <c r="H140" s="4"/>
       <c r="I140" s="4"/>
-      <c r="J140" s="1"/>
+      <c r="J140" s="4"/>
       <c r="K140" s="1"/>
       <c r="L140" s="1"/>
       <c r="M140" s="1"/>
-    </row>
-    <row r="141" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N140" s="1"/>
+    </row>
+    <row r="141" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A141" s="1"/>
       <c r="B141" s="1"/>
       <c r="C141" s="1"/>
@@ -4088,28 +4302,30 @@
       <c r="F141" s="1"/>
       <c r="G141" s="1"/>
       <c r="H141" s="1"/>
-      <c r="I141" s="4"/>
-      <c r="J141" s="1"/>
+      <c r="I141" s="1"/>
+      <c r="J141" s="4"/>
       <c r="K141" s="1"/>
       <c r="L141" s="1"/>
       <c r="M141" s="1"/>
-    </row>
-    <row r="142" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N141" s="1"/>
+    </row>
+    <row r="142" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A142" s="1"/>
       <c r="B142" s="1"/>
       <c r="C142" s="1"/>
       <c r="D142" s="1"/>
       <c r="E142" s="1"/>
       <c r="F142" s="1"/>
-      <c r="G142" s="4"/>
+      <c r="G142" s="1"/>
       <c r="H142" s="4"/>
       <c r="I142" s="4"/>
-      <c r="J142" s="1"/>
+      <c r="J142" s="4"/>
       <c r="K142" s="1"/>
       <c r="L142" s="1"/>
       <c r="M142" s="1"/>
-    </row>
-    <row r="143" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N142" s="1"/>
+    </row>
+    <row r="143" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A143" s="1"/>
       <c r="B143" s="1"/>
       <c r="C143" s="1"/>
@@ -4117,14 +4333,15 @@
       <c r="E143" s="1"/>
       <c r="F143" s="1"/>
       <c r="G143" s="1"/>
-      <c r="H143" s="4"/>
-      <c r="I143" s="1"/>
+      <c r="H143" s="1"/>
+      <c r="I143" s="4"/>
       <c r="J143" s="1"/>
       <c r="K143" s="1"/>
       <c r="L143" s="1"/>
       <c r="M143" s="1"/>
-    </row>
-    <row r="144" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N143" s="1"/>
+    </row>
+    <row r="144" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A144" s="1"/>
       <c r="B144" s="1"/>
       <c r="C144" s="1"/>
@@ -4132,14 +4349,15 @@
       <c r="E144" s="1"/>
       <c r="F144" s="1"/>
       <c r="G144" s="1"/>
-      <c r="H144" s="4"/>
-      <c r="I144" s="1"/>
+      <c r="H144" s="1"/>
+      <c r="I144" s="4"/>
       <c r="J144" s="1"/>
-      <c r="K144" s="5"/>
-      <c r="L144" s="1"/>
+      <c r="K144" s="1"/>
+      <c r="L144" s="5"/>
       <c r="M144" s="1"/>
-    </row>
-    <row r="145" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N144" s="1"/>
+    </row>
+    <row r="145" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A145" s="1"/>
       <c r="B145" s="1"/>
       <c r="C145" s="1"/>
@@ -4147,14 +4365,15 @@
       <c r="E145" s="1"/>
       <c r="F145" s="1"/>
       <c r="G145" s="1"/>
-      <c r="H145" s="4"/>
+      <c r="H145" s="1"/>
       <c r="I145" s="4"/>
-      <c r="J145" s="1"/>
-      <c r="K145" s="5"/>
-      <c r="L145" s="1"/>
+      <c r="J145" s="4"/>
+      <c r="K145" s="1"/>
+      <c r="L145" s="5"/>
       <c r="M145" s="1"/>
-    </row>
-    <row r="146" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N145" s="1"/>
+    </row>
+    <row r="146" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A146" s="1"/>
       <c r="B146" s="1"/>
       <c r="C146" s="1"/>
@@ -4162,25 +4381,27 @@
       <c r="E146" s="1"/>
       <c r="F146" s="1"/>
       <c r="G146" s="1"/>
-      <c r="H146" s="4"/>
+      <c r="H146" s="1"/>
       <c r="I146" s="4"/>
-      <c r="J146" s="1"/>
+      <c r="J146" s="4"/>
       <c r="K146" s="1"/>
       <c r="L146" s="1"/>
-      <c r="M146" s="5"/>
+      <c r="M146" s="1"/>
+      <c r="N146" s="5"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:M146" xr:uid="{43DB3A21-6E97-43C0-9768-D0796C62C1D9}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:M146">
+  <autoFilter ref="A1:N146" xr:uid="{43DB3A21-6E97-43C0-9768-D0796C62C1D9}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:N146">
       <sortCondition ref="A1:A146"/>
     </sortState>
   </autoFilter>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="K2" r:id="rId1" xr:uid="{3D5E2587-EA79-4E3A-AE24-AFE6A590A45D}"/>
-    <hyperlink ref="M3" r:id="rId2" xr:uid="{E59ABA71-EA20-4B7B-8826-444F6FFDEECF}"/>
+    <hyperlink ref="L2" r:id="rId1" xr:uid="{3D5E2587-EA79-4E3A-AE24-AFE6A590A45D}"/>
+    <hyperlink ref="N3" r:id="rId2" xr:uid="{E59ABA71-EA20-4B7B-8826-444F6FFDEECF}"/>
+    <hyperlink ref="N2" r:id="rId3" xr:uid="{15750426-A76E-44BC-86C5-148B125F0F68}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId3"/>
+  <pageSetup orientation="portrait" r:id="rId4"/>
 </worksheet>
 </file>
--- a/data/base.xlsx
+++ b/data/base.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vamon\Documents\Aplicación Mundopeces\mundopeces_app\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{710B2AD7-27FF-419C-9188-7947F5B5EF35}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{491A6879-7AA1-4A80-9B5D-7B64186425B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="1" xr2:uid="{732455C0-6376-41B9-84D1-84E385ACD0F1}"/>
   </bookViews>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="50">
   <si>
     <t>Goldfish Oranda</t>
   </si>
@@ -204,6 +204,21 @@
     <t>A continuación, te compartimos algunas curiosidades que te sorprenderán sobre esta especie:
 -	El capuchón toma alrededor de 1 o 2 años para desarrollarse por completo.
 -	Los orandas se presentan en una variedad de colores, incluyendo rojo, blanco, naranja, negro, y combinaciones como el sarasa (rojo y blanco) y el panda (blanco y negro).</t>
+  </si>
+  <si>
+    <t>Óscar</t>
+  </si>
+  <si>
+    <t>Astronotus ocellatus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Endémico de Sudamérica. Es nativo de Venezuela, Ecuador,Perú, Colombia, Brasil, Bolivia y Guayana Francesa, y habita en la cuenca del Amazonas, a lo largo del propio río Amazonas y los ríos Putumayo, Negro, Solimões y Ucayali, así como en los drenajes del Approuague y el Oyapoque. </t>
+  </si>
+  <si>
+    <t>Aunque la especie es ampliamente reconocida como sexualmente monomórfica,[7]​ se ha sugerido que el macho crece más rápidamente, y en algunas poblaciones naturales los machos poseen pintas negras en la base de la espina dorsal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">El pez Óscar (Astronotus ocellatus) es un cíclido de agua dulce originario de Sudamérica, conocido por su tamaño, colores llamativos y comportamiento territorial. Pueden alcanzar hasta 35 cm de longitud y 1.6 kg de peso, y presentan una variedad de colores y patrones, incluyendo el Óscar tigre, el Óscar albino y el Óscar rojo. Son depredadores voraces y pueden ser agresivos, especialmente durante la época de reproducción. </t>
   </si>
 </sst>
 </file>
@@ -683,7 +698,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="A5" sqref="A5"/>
+      <selection pane="topRight" activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -795,12 +810,24 @@
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="1"/>
-      <c r="B6" s="1"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
+      <c r="A6" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C6" s="2">
+        <v>13</v>
+      </c>
+      <c r="D6" s="2">
+        <v>30</v>
+      </c>
+      <c r="E6" s="2">
+        <v>50</v>
+      </c>
+      <c r="F6" s="2">
+        <v>200</v>
+      </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
@@ -1938,9 +1965,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{43DB3A21-6E97-43C0-9768-D0796C62C1D9}">
   <dimension ref="A1:N146"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="H1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="J2" sqref="J2"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="D5" sqref="D5:D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2133,12 +2160,22 @@
       <c r="M5" s="1"/>
       <c r="N5" s="1"/>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A6" s="1"/>
-      <c r="B6" s="1"/>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
+    <row r="6" spans="1:14" ht="180" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>48</v>
+      </c>
       <c r="F6" s="1"/>
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
